--- a/One 97.xlsx
+++ b/One 97.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27830"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27928"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/4c0877a5f6f3f923/Desktop/Praject/Paytm/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="38" documentId="8_{C440F6FA-D474-49BE-B1F7-852EFA7AE053}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{922AB3B8-FD66-4B8D-BCEB-7972D74D2327}"/>
+  <xr:revisionPtr revIDLastSave="39" documentId="8_{C440F6FA-D474-49BE-B1F7-852EFA7AE053}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{1D74F4F1-18AE-4DA5-A592-E7C7D61191BF}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" activeTab="4" xr2:uid="{2E6A5B0E-4BB1-415E-B001-58EFED188FA5}"/>
   </bookViews>
@@ -21,11 +21,7 @@
     <sheet name="DCF" sheetId="8" r:id="rId6"/>
     <sheet name="Data Sheet" sheetId="2" r:id="rId7"/>
   </sheets>
-  <externalReferences>
-    <externalReference r:id="rId8"/>
-  </externalReferences>
   <calcPr calcId="191029"/>
-  <fileRecoveryPr repairLoad="1"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -505,7 +501,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="6">
+  <borders count="7">
     <border>
       <left/>
       <right/>
@@ -560,6 +556,21 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
@@ -603,12 +614,6 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="8" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="8" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="4" fillId="7" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -620,6 +625,15 @@
     </xf>
     <xf numFmtId="0" fontId="4" fillId="7" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -633,14 +647,11 @@
     <xf numFmtId="0" fontId="0" fillId="11" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    <xf numFmtId="0" fontId="4" fillId="7" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    <xf numFmtId="0" fontId="4" fillId="8" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -3881,32 +3892,6 @@
 </xdr:wsDr>
 </file>
 
-<file path=xl/externalLinks/externalLink1.xml><?xml version="1.0" encoding="utf-8"?>
-<externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:xxl21="http://schemas.microsoft.com/office/spreadsheetml/2021/extlinks2021" mc:Ignorable="x14 xxl21">
-  <externalBook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1">
-    <xxl21:alternateUrls>
-      <xxl21:absoluteUrl r:id="rId2"/>
-    </xxl21:alternateUrls>
-    <sheetNames>
-      <sheetName val="Profit &amp; Loss"/>
-      <sheetName val="Quarters"/>
-      <sheetName val="Balance Sheet"/>
-      <sheetName val="Cash Flow"/>
-      <sheetName val="Customization"/>
-      <sheetName val="Data Sheet"/>
-    </sheetNames>
-    <sheetDataSet>
-      <sheetData sheetId="0"/>
-      <sheetData sheetId="1"/>
-      <sheetData sheetId="2"/>
-      <sheetData sheetId="3"/>
-      <sheetData sheetId="4"/>
-      <sheetData sheetId="5"/>
-    </sheetDataSet>
-  </externalBook>
-</externalLink>
-</file>
-
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
 <a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
   <a:themeElements>
@@ -4206,8 +4191,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{643EE0A4-3AA4-4414-AFAA-CA045A05B06A}">
   <dimension ref="A1:P28"/>
   <sheetViews>
-    <sheetView zoomScale="55" zoomScaleNormal="55" workbookViewId="0">
-      <selection activeCell="P3" sqref="P3"/>
+    <sheetView showGridLines="0" zoomScale="55" zoomScaleNormal="55" workbookViewId="0">
+      <selection activeCell="E36" sqref="E36"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -4752,27 +4737,27 @@
         <v>57</v>
       </c>
       <c r="B20" s="13">
-        <f>IF('[1]Data Sheet'!B31&gt;0, '[1]Data Sheet'!B32/'[1]Data Sheet'!B31, 0)</f>
+        <f>IF('Data Sheet'!B31&gt;0, 'Data Sheet'!B32/'Data Sheet'!B31, 0)</f>
         <v>0</v>
       </c>
       <c r="C20" s="13">
-        <f>IF('[1]Data Sheet'!C31&gt;0, '[1]Data Sheet'!C32/'[1]Data Sheet'!C31, 0)</f>
+        <f>IF('Data Sheet'!C31&gt;0, 'Data Sheet'!C32/'Data Sheet'!C31, 0)</f>
         <v>0</v>
       </c>
       <c r="D20" s="13">
-        <f>IF('[1]Data Sheet'!D31&gt;0, '[1]Data Sheet'!D32/'[1]Data Sheet'!D31, 0)</f>
+        <f>IF('Data Sheet'!D31&gt;0, 'Data Sheet'!D32/'Data Sheet'!D31, 0)</f>
         <v>0</v>
       </c>
       <c r="E20" s="13">
-        <f>IF('[1]Data Sheet'!E31&gt;0, '[1]Data Sheet'!E32/'[1]Data Sheet'!E31, 0)</f>
+        <f>IF('Data Sheet'!E31&gt;0, 'Data Sheet'!E32/'Data Sheet'!E31, 0)</f>
         <v>0</v>
       </c>
       <c r="F20" s="13">
-        <f>IF('[1]Data Sheet'!F31&gt;0, '[1]Data Sheet'!F32/'[1]Data Sheet'!F31, 0)</f>
+        <f>IF('Data Sheet'!F31&gt;0, 'Data Sheet'!F32/'Data Sheet'!F31, 0)</f>
         <v>0</v>
       </c>
       <c r="G20" s="13">
-        <f>IF('[1]Data Sheet'!G31&gt;0, '[1]Data Sheet'!G32/'[1]Data Sheet'!G31, 0)</f>
+        <f>IF('Data Sheet'!G31&gt;0, 'Data Sheet'!G32/'Data Sheet'!G31, 0)</f>
         <v>0</v>
       </c>
     </row>
@@ -4930,8 +4915,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{55E95EC0-2E79-49BE-AC83-CAB4571A3A9F}">
   <dimension ref="A1:K34"/>
   <sheetViews>
-    <sheetView zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection sqref="A1:D1"/>
+    <sheetView showGridLines="0" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="K26" sqref="K26"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -5590,7 +5575,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5383C37A-B6F2-4288-8B27-B7F7E4517152}">
   <dimension ref="A1:K9"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView showGridLines="0" workbookViewId="0">
       <selection activeCell="C15" sqref="C15"/>
     </sheetView>
   </sheetViews>
@@ -5805,7 +5790,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3C4566DA-435F-4CF7-9B07-00647AC4DBFA}">
   <dimension ref="A1:E13"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView showGridLines="0" workbookViewId="0">
       <selection activeCell="D17" sqref="D17"/>
     </sheetView>
   </sheetViews>
@@ -5994,21 +5979,21 @@
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3EB74AA8-D05B-4D47-9D4C-FB004AFB4740}">
-  <dimension ref="A1:T52"/>
+  <dimension ref="A1:U52"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A30" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="K50" sqref="K50"/>
+    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A15" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="N22" sqref="N22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
     <col min="1" max="1" width="22.26953125" bestFit="1" customWidth="1"/>
     <col min="2" max="3" width="9.7265625" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="21.81640625" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="14.90625" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="21.81640625" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="14.90625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:20" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A1" s="27" t="s">
         <v>5</v>
       </c>
@@ -6016,93 +6001,98 @@
       <c r="C1" s="27"/>
       <c r="D1" s="27"/>
     </row>
-    <row r="3" spans="1:20" ht="14.5" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A3" s="31" t="s">
+    <row r="3" spans="1:21" ht="14.5" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A3" s="29" t="s">
         <v>98</v>
       </c>
-      <c r="B3" s="31"/>
-      <c r="C3" s="31"/>
-      <c r="D3" s="31"/>
-      <c r="E3" s="31"/>
-      <c r="F3" s="31"/>
-      <c r="G3" s="31"/>
-      <c r="H3" s="31"/>
-      <c r="I3" s="31"/>
-      <c r="J3" s="31"/>
-      <c r="K3" s="31"/>
-      <c r="L3" s="31"/>
-      <c r="M3" s="31"/>
-      <c r="N3" s="31"/>
-    </row>
-    <row r="4" spans="1:20" x14ac:dyDescent="0.35">
-      <c r="A4" s="32"/>
-      <c r="B4" s="32"/>
-      <c r="C4" s="32"/>
-      <c r="D4" s="32"/>
-      <c r="E4" s="32"/>
-      <c r="F4" s="32"/>
-      <c r="G4" s="32"/>
-      <c r="H4" s="32"/>
-      <c r="I4" s="32"/>
-      <c r="J4" s="32"/>
-      <c r="K4" s="32"/>
-      <c r="L4" s="32"/>
-      <c r="M4" s="32"/>
-      <c r="N4" s="32"/>
-    </row>
-    <row r="5" spans="1:20" x14ac:dyDescent="0.35">
-      <c r="A5" s="32"/>
-      <c r="B5" s="32"/>
-      <c r="C5" s="32"/>
-      <c r="D5" s="32"/>
-      <c r="E5" s="32"/>
-      <c r="F5" s="32"/>
-      <c r="G5" s="32"/>
-      <c r="H5" s="32"/>
-      <c r="I5" s="32"/>
-      <c r="J5" s="32"/>
-      <c r="K5" s="32"/>
-      <c r="L5" s="32"/>
-      <c r="M5" s="32"/>
-      <c r="N5" s="32"/>
-    </row>
-    <row r="8" spans="1:20" x14ac:dyDescent="0.35">
-      <c r="A8" s="33" t="s">
+      <c r="B3" s="29"/>
+      <c r="C3" s="29"/>
+      <c r="D3" s="29"/>
+      <c r="E3" s="29"/>
+      <c r="F3" s="29"/>
+      <c r="G3" s="29"/>
+      <c r="H3" s="29"/>
+      <c r="I3" s="29"/>
+      <c r="J3" s="29"/>
+      <c r="K3" s="29"/>
+      <c r="L3" s="29"/>
+      <c r="M3" s="29"/>
+      <c r="N3" s="29"/>
+      <c r="O3" s="29"/>
+    </row>
+    <row r="4" spans="1:21" x14ac:dyDescent="0.35">
+      <c r="A4" s="30"/>
+      <c r="B4" s="30"/>
+      <c r="C4" s="30"/>
+      <c r="D4" s="30"/>
+      <c r="E4" s="30"/>
+      <c r="F4" s="30"/>
+      <c r="G4" s="30"/>
+      <c r="H4" s="30"/>
+      <c r="I4" s="30"/>
+      <c r="J4" s="30"/>
+      <c r="K4" s="30"/>
+      <c r="L4" s="30"/>
+      <c r="M4" s="30"/>
+      <c r="N4" s="30"/>
+      <c r="O4" s="30"/>
+    </row>
+    <row r="5" spans="1:21" x14ac:dyDescent="0.35">
+      <c r="A5" s="30"/>
+      <c r="B5" s="30"/>
+      <c r="C5" s="30"/>
+      <c r="D5" s="30"/>
+      <c r="E5" s="30"/>
+      <c r="F5" s="30"/>
+      <c r="G5" s="30"/>
+      <c r="H5" s="30"/>
+      <c r="I5" s="30"/>
+      <c r="J5" s="30"/>
+      <c r="K5" s="30"/>
+      <c r="L5" s="30"/>
+      <c r="M5" s="30"/>
+      <c r="N5" s="30"/>
+      <c r="O5" s="30"/>
+    </row>
+    <row r="8" spans="1:21" x14ac:dyDescent="0.35">
+      <c r="A8" s="31" t="s">
         <v>90</v>
       </c>
-      <c r="B8" s="33"/>
-      <c r="C8" s="33"/>
-      <c r="D8" s="33"/>
-      <c r="E8" s="33"/>
-      <c r="F8" s="33"/>
-      <c r="G8" s="33"/>
-      <c r="H8" s="33"/>
-      <c r="I8" s="33"/>
-      <c r="J8" s="33"/>
-      <c r="K8" s="33"/>
-      <c r="L8" s="33"/>
-      <c r="M8" s="33"/>
-      <c r="N8" s="33"/>
-      <c r="O8" s="33"/>
-    </row>
-    <row r="9" spans="1:20" x14ac:dyDescent="0.35">
-      <c r="A9" s="34"/>
-      <c r="B9" s="34"/>
-      <c r="C9" s="34"/>
-      <c r="D9" s="34"/>
-      <c r="E9" s="34"/>
-      <c r="F9" s="34"/>
-      <c r="G9" s="34"/>
-      <c r="H9" s="34"/>
-      <c r="I9" s="34"/>
-      <c r="J9" s="34"/>
-      <c r="K9" s="34"/>
-      <c r="L9" s="34"/>
-      <c r="M9" s="34"/>
-      <c r="N9" s="34"/>
-      <c r="O9" s="34"/>
-    </row>
-    <row r="10" spans="1:20" x14ac:dyDescent="0.35">
+      <c r="B8" s="31"/>
+      <c r="C8" s="31"/>
+      <c r="D8" s="31"/>
+      <c r="E8" s="31"/>
+      <c r="F8" s="31"/>
+      <c r="G8" s="31"/>
+      <c r="H8" s="31"/>
+      <c r="I8" s="31"/>
+      <c r="J8" s="31"/>
+      <c r="K8" s="31"/>
+      <c r="L8" s="31"/>
+      <c r="M8" s="31"/>
+      <c r="N8" s="31"/>
+      <c r="O8" s="31"/>
+      <c r="P8" s="31"/>
+    </row>
+    <row r="9" spans="1:21" x14ac:dyDescent="0.35">
+      <c r="A9" s="32"/>
+      <c r="B9" s="32"/>
+      <c r="C9" s="32"/>
+      <c r="D9" s="32"/>
+      <c r="E9" s="32"/>
+      <c r="F9" s="32"/>
+      <c r="G9" s="32"/>
+      <c r="H9" s="32"/>
+      <c r="I9" s="32"/>
+      <c r="J9" s="32"/>
+      <c r="K9" s="32"/>
+      <c r="L9" s="32"/>
+      <c r="M9" s="32"/>
+      <c r="N9" s="32"/>
+      <c r="O9" s="32"/>
+      <c r="P9" s="32"/>
+    </row>
+    <row r="10" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A10" s="20"/>
       <c r="B10" s="20"/>
       <c r="C10" s="20"/>
@@ -6123,8 +6113,9 @@
       <c r="R10" s="20"/>
       <c r="S10" s="20"/>
       <c r="T10" s="20"/>
-    </row>
-    <row r="11" spans="1:20" x14ac:dyDescent="0.35">
+      <c r="U10" s="20"/>
+    </row>
+    <row r="11" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A11" s="5" t="s">
         <v>83</v>
       </c>
@@ -6147,7 +6138,7 @@
         <v>47178</v>
       </c>
     </row>
-    <row r="12" spans="1:20" x14ac:dyDescent="0.35">
+    <row r="12" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A12" s="10" t="s">
         <v>8</v>
       </c>
@@ -6176,7 +6167,7 @@
         <v>24827.959295999997</v>
       </c>
     </row>
-    <row r="13" spans="1:20" x14ac:dyDescent="0.35">
+    <row r="13" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A13" t="s">
         <v>91</v>
       </c>
@@ -6196,72 +6187,72 @@
         <v>0.2</v>
       </c>
     </row>
-    <row r="16" spans="1:20" x14ac:dyDescent="0.35">
-      <c r="A16" s="33" t="s">
+    <row r="16" spans="1:21" x14ac:dyDescent="0.35">
+      <c r="A16" s="40" t="s">
         <v>89</v>
       </c>
-      <c r="B16" s="33"/>
-      <c r="C16" s="33"/>
-      <c r="D16" s="33"/>
-      <c r="E16" s="33"/>
-      <c r="F16" s="33"/>
-      <c r="G16" s="33"/>
-      <c r="H16" s="33"/>
-      <c r="I16" s="33"/>
-      <c r="J16" s="33"/>
-      <c r="K16" s="33"/>
-      <c r="L16" s="33"/>
-      <c r="M16" s="10" t="s">
+      <c r="B16" s="40"/>
+      <c r="C16" s="40"/>
+      <c r="D16" s="40"/>
+      <c r="E16" s="40"/>
+      <c r="F16" s="40"/>
+      <c r="G16" s="40"/>
+      <c r="H16" s="40"/>
+      <c r="I16" s="40"/>
+      <c r="J16" s="40"/>
+      <c r="K16" s="40"/>
+      <c r="L16" s="40"/>
+      <c r="N16" s="10" t="s">
         <v>84</v>
       </c>
-      <c r="N16" s="15">
+      <c r="O16" s="15">
         <f>('Income Statement'!G7/'Income Statement'!G5)</f>
         <v>1.5183106496422059</v>
       </c>
-      <c r="O16" t="s">
+      <c r="P16" t="s">
         <v>85</v>
       </c>
     </row>
-    <row r="17" spans="1:15" x14ac:dyDescent="0.35">
-      <c r="A17" s="34"/>
-      <c r="B17" s="34"/>
-      <c r="C17" s="34"/>
-      <c r="D17" s="34"/>
-      <c r="E17" s="34"/>
-      <c r="F17" s="34"/>
-      <c r="G17" s="34"/>
-      <c r="H17" s="34"/>
-      <c r="I17" s="34"/>
-      <c r="J17" s="34"/>
-      <c r="K17" s="34"/>
-      <c r="L17" s="34"/>
-      <c r="N17" s="15">
+    <row r="17" spans="1:16" x14ac:dyDescent="0.35">
+      <c r="A17" s="40"/>
+      <c r="B17" s="40"/>
+      <c r="C17" s="40"/>
+      <c r="D17" s="40"/>
+      <c r="E17" s="40"/>
+      <c r="F17" s="40"/>
+      <c r="G17" s="40"/>
+      <c r="H17" s="40"/>
+      <c r="I17" s="40"/>
+      <c r="J17" s="40"/>
+      <c r="K17" s="40"/>
+      <c r="L17" s="40"/>
+      <c r="O17" s="15">
         <f>'Income Statement'!F7/'Income Statement'!F5</f>
         <v>1.2057119257099234</v>
       </c>
-      <c r="O17" t="s">
+      <c r="P17" t="s">
         <v>86</v>
       </c>
     </row>
-    <row r="18" spans="1:15" x14ac:dyDescent="0.35">
-      <c r="N18" s="15">
+    <row r="18" spans="1:16" x14ac:dyDescent="0.35">
+      <c r="O18" s="15">
         <f>'Income Statement'!E7/'Income Statement'!E5</f>
         <v>1.4791926339913959</v>
       </c>
-      <c r="O18" t="s">
+      <c r="P18" t="s">
         <v>87</v>
       </c>
     </row>
-    <row r="19" spans="1:15" x14ac:dyDescent="0.35">
-      <c r="N19" s="15">
+    <row r="19" spans="1:16" x14ac:dyDescent="0.35">
+      <c r="O19" s="15">
         <f>'Income Statement'!D7/'Income Statement'!D5</f>
         <v>1.6562310355906187</v>
       </c>
-      <c r="O19" t="s">
+      <c r="P19" t="s">
         <v>88</v>
       </c>
     </row>
-    <row r="20" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="20" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A20" s="5" t="s">
         <v>83</v>
       </c>
@@ -6284,7 +6275,7 @@
         <v>47178</v>
       </c>
     </row>
-    <row r="21" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="21" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A21" s="10" t="s">
         <v>24</v>
       </c>
@@ -6313,7 +6304,7 @@
         <v>23834.840924159998</v>
       </c>
     </row>
-    <row r="23" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="23" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A23" s="10" t="s">
         <v>92</v>
       </c>
@@ -6338,7 +6329,7 @@
         <v>993.11837183999887</v>
       </c>
     </row>
-    <row r="25" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="25" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A25" s="10" t="s">
         <v>93</v>
       </c>
@@ -6366,16 +6357,17 @@
         <f t="shared" si="3"/>
         <v>1488.8727481254398</v>
       </c>
-      <c r="I25" s="29" t="s">
+      <c r="I25" s="41" t="s">
         <v>94</v>
       </c>
-      <c r="J25" s="29"/>
-      <c r="K25" s="29"/>
-      <c r="L25" s="29"/>
-      <c r="M25" s="29"/>
-      <c r="N25" s="29"/>
-    </row>
-    <row r="26" spans="1:15" x14ac:dyDescent="0.35">
+      <c r="J25" s="41"/>
+      <c r="K25" s="41"/>
+      <c r="L25" s="41"/>
+      <c r="M25" s="41"/>
+      <c r="N25" s="41"/>
+      <c r="O25" s="41"/>
+    </row>
+    <row r="26" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A26" t="s">
         <v>91</v>
       </c>
@@ -6394,14 +6386,15 @@
       <c r="G26" s="15">
         <v>0.18</v>
       </c>
-      <c r="I26" s="30"/>
-      <c r="J26" s="30"/>
-      <c r="K26" s="30"/>
-      <c r="L26" s="30"/>
-      <c r="M26" s="30"/>
-      <c r="N26" s="30"/>
-    </row>
-    <row r="28" spans="1:15" ht="14.5" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="I26" s="41"/>
+      <c r="J26" s="41"/>
+      <c r="K26" s="41"/>
+      <c r="L26" s="41"/>
+      <c r="M26" s="41"/>
+      <c r="N26" s="41"/>
+      <c r="O26" s="41"/>
+    </row>
+    <row r="28" spans="1:16" ht="14.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A28" s="10" t="s">
         <v>95</v>
       </c>
@@ -6428,16 +6421,17 @@
         <f t="shared" si="4"/>
         <v>988.67368427519989</v>
       </c>
-      <c r="I28" s="29" t="s">
+      <c r="I28" s="41" t="s">
         <v>97</v>
       </c>
-      <c r="J28" s="29"/>
-      <c r="K28" s="29"/>
-      <c r="L28" s="29"/>
-      <c r="M28" s="29"/>
-      <c r="N28" s="29"/>
-    </row>
-    <row r="29" spans="1:15" x14ac:dyDescent="0.35">
+      <c r="J28" s="41"/>
+      <c r="K28" s="41"/>
+      <c r="L28" s="41"/>
+      <c r="M28" s="41"/>
+      <c r="N28" s="41"/>
+      <c r="O28" s="41"/>
+    </row>
+    <row r="29" spans="1:16" x14ac:dyDescent="0.35">
       <c r="C29" s="15">
         <v>0.12</v>
       </c>
@@ -6453,14 +6447,15 @@
       <c r="G29" s="15">
         <v>0.12</v>
       </c>
-      <c r="I29" s="30"/>
-      <c r="J29" s="30"/>
-      <c r="K29" s="30"/>
-      <c r="L29" s="30"/>
-      <c r="M29" s="30"/>
-      <c r="N29" s="30"/>
-    </row>
-    <row r="31" spans="1:15" x14ac:dyDescent="0.35">
+      <c r="I29" s="41"/>
+      <c r="J29" s="41"/>
+      <c r="K29" s="41"/>
+      <c r="L29" s="41"/>
+      <c r="M29" s="41"/>
+      <c r="N29" s="41"/>
+      <c r="O29" s="41"/>
+    </row>
+    <row r="31" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A31" s="10" t="s">
         <v>96</v>
       </c>
@@ -6496,12 +6491,12 @@
     </row>
   </sheetData>
   <mergeCells count="6">
-    <mergeCell ref="I25:N26"/>
-    <mergeCell ref="I28:N29"/>
-    <mergeCell ref="A3:N5"/>
+    <mergeCell ref="I25:O26"/>
+    <mergeCell ref="I28:O29"/>
+    <mergeCell ref="A3:O5"/>
     <mergeCell ref="A1:D1"/>
     <mergeCell ref="A16:L17"/>
-    <mergeCell ref="A8:O9"/>
+    <mergeCell ref="A8:P9"/>
   </mergeCells>
   <phoneticPr fontId="5" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -6513,7 +6508,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{82BA7741-34D0-41E4-9CED-5F08344F972E}">
   <dimension ref="A1:L42"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView showGridLines="0" workbookViewId="0">
       <selection activeCell="B45" sqref="B45"/>
     </sheetView>
   </sheetViews>
@@ -6581,22 +6576,22 @@
       </c>
     </row>
     <row r="7" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A7" s="35" t="s">
+      <c r="A7" s="36" t="s">
         <v>100</v>
       </c>
-      <c r="B7" s="35"/>
-      <c r="C7" s="35"/>
-      <c r="D7" s="35"/>
-      <c r="E7" s="35"/>
-      <c r="F7" s="35"/>
+      <c r="B7" s="36"/>
+      <c r="C7" s="36"/>
+      <c r="D7" s="36"/>
+      <c r="E7" s="36"/>
+      <c r="F7" s="36"/>
     </row>
     <row r="8" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A8" s="35"/>
-      <c r="B8" s="35"/>
-      <c r="C8" s="35"/>
-      <c r="D8" s="35"/>
-      <c r="E8" s="35"/>
-      <c r="F8" s="35"/>
+      <c r="A8" s="36"/>
+      <c r="B8" s="36"/>
+      <c r="C8" s="36"/>
+      <c r="D8" s="36"/>
+      <c r="E8" s="36"/>
+      <c r="F8" s="36"/>
     </row>
     <row r="10" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A10" s="28" t="s">
@@ -6765,120 +6760,120 @@
       </c>
     </row>
     <row r="33" spans="1:12" x14ac:dyDescent="0.35">
-      <c r="B33" s="36" t="s">
+      <c r="B33" s="37" t="s">
         <v>113</v>
       </c>
-      <c r="C33" s="36"/>
-      <c r="D33" s="36"/>
-      <c r="E33" s="36"/>
-      <c r="F33" s="36"/>
-      <c r="G33" s="36"/>
-      <c r="H33" s="36"/>
+      <c r="C33" s="37"/>
+      <c r="D33" s="37"/>
+      <c r="E33" s="37"/>
+      <c r="F33" s="37"/>
+      <c r="G33" s="37"/>
+      <c r="H33" s="37"/>
     </row>
     <row r="34" spans="1:12" x14ac:dyDescent="0.35">
-      <c r="B34" s="37"/>
-      <c r="C34" s="37"/>
-      <c r="D34" s="37"/>
-      <c r="E34" s="37"/>
-      <c r="F34" s="37"/>
-      <c r="G34" s="37"/>
-      <c r="H34" s="37"/>
+      <c r="B34" s="38"/>
+      <c r="C34" s="38"/>
+      <c r="D34" s="38"/>
+      <c r="E34" s="38"/>
+      <c r="F34" s="38"/>
+      <c r="G34" s="38"/>
+      <c r="H34" s="38"/>
     </row>
     <row r="35" spans="1:12" ht="15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="B35" s="38"/>
-      <c r="C35" s="38"/>
-      <c r="D35" s="38"/>
-      <c r="E35" s="38"/>
-      <c r="F35" s="38"/>
-      <c r="G35" s="38"/>
-      <c r="H35" s="38"/>
+      <c r="B35" s="39"/>
+      <c r="C35" s="39"/>
+      <c r="D35" s="39"/>
+      <c r="E35" s="39"/>
+      <c r="F35" s="39"/>
+      <c r="G35" s="39"/>
+      <c r="H35" s="39"/>
     </row>
     <row r="36" spans="1:12" ht="15" thickTop="1" x14ac:dyDescent="0.35"/>
     <row r="37" spans="1:12" x14ac:dyDescent="0.35">
-      <c r="A37" s="39" t="s">
+      <c r="A37" s="33" t="s">
         <v>114</v>
       </c>
-      <c r="B37" s="39"/>
-      <c r="C37" s="39"/>
-      <c r="D37" s="39"/>
-      <c r="E37" s="39"/>
-      <c r="F37" s="39"/>
-      <c r="G37" s="39"/>
-      <c r="H37" s="39"/>
-      <c r="I37" s="39"/>
-      <c r="J37" s="39"/>
-      <c r="K37" s="39"/>
-      <c r="L37" s="39"/>
+      <c r="B37" s="33"/>
+      <c r="C37" s="33"/>
+      <c r="D37" s="33"/>
+      <c r="E37" s="33"/>
+      <c r="F37" s="33"/>
+      <c r="G37" s="33"/>
+      <c r="H37" s="33"/>
+      <c r="I37" s="33"/>
+      <c r="J37" s="33"/>
+      <c r="K37" s="33"/>
+      <c r="L37" s="33"/>
     </row>
     <row r="38" spans="1:12" x14ac:dyDescent="0.35">
-      <c r="A38" s="40"/>
-      <c r="B38" s="40"/>
-      <c r="C38" s="40"/>
-      <c r="D38" s="40"/>
-      <c r="E38" s="40"/>
-      <c r="F38" s="40"/>
-      <c r="G38" s="40"/>
-      <c r="H38" s="40"/>
-      <c r="I38" s="40"/>
-      <c r="J38" s="40"/>
-      <c r="K38" s="40"/>
-      <c r="L38" s="40"/>
+      <c r="A38" s="34"/>
+      <c r="B38" s="34"/>
+      <c r="C38" s="34"/>
+      <c r="D38" s="34"/>
+      <c r="E38" s="34"/>
+      <c r="F38" s="34"/>
+      <c r="G38" s="34"/>
+      <c r="H38" s="34"/>
+      <c r="I38" s="34"/>
+      <c r="J38" s="34"/>
+      <c r="K38" s="34"/>
+      <c r="L38" s="34"/>
     </row>
     <row r="39" spans="1:12" x14ac:dyDescent="0.35">
-      <c r="A39" s="40"/>
-      <c r="B39" s="40"/>
-      <c r="C39" s="40"/>
-      <c r="D39" s="40"/>
-      <c r="E39" s="40"/>
-      <c r="F39" s="40"/>
-      <c r="G39" s="40"/>
-      <c r="H39" s="40"/>
-      <c r="I39" s="40"/>
-      <c r="J39" s="40"/>
-      <c r="K39" s="40"/>
-      <c r="L39" s="40"/>
+      <c r="A39" s="34"/>
+      <c r="B39" s="34"/>
+      <c r="C39" s="34"/>
+      <c r="D39" s="34"/>
+      <c r="E39" s="34"/>
+      <c r="F39" s="34"/>
+      <c r="G39" s="34"/>
+      <c r="H39" s="34"/>
+      <c r="I39" s="34"/>
+      <c r="J39" s="34"/>
+      <c r="K39" s="34"/>
+      <c r="L39" s="34"/>
     </row>
     <row r="40" spans="1:12" x14ac:dyDescent="0.35">
-      <c r="A40" s="40"/>
-      <c r="B40" s="40"/>
-      <c r="C40" s="40"/>
-      <c r="D40" s="40"/>
-      <c r="E40" s="40"/>
-      <c r="F40" s="40"/>
-      <c r="G40" s="40"/>
-      <c r="H40" s="40"/>
-      <c r="I40" s="40"/>
-      <c r="J40" s="40"/>
-      <c r="K40" s="40"/>
-      <c r="L40" s="40"/>
+      <c r="A40" s="34"/>
+      <c r="B40" s="34"/>
+      <c r="C40" s="34"/>
+      <c r="D40" s="34"/>
+      <c r="E40" s="34"/>
+      <c r="F40" s="34"/>
+      <c r="G40" s="34"/>
+      <c r="H40" s="34"/>
+      <c r="I40" s="34"/>
+      <c r="J40" s="34"/>
+      <c r="K40" s="34"/>
+      <c r="L40" s="34"/>
     </row>
     <row r="41" spans="1:12" x14ac:dyDescent="0.35">
-      <c r="A41" s="40"/>
-      <c r="B41" s="40"/>
-      <c r="C41" s="40"/>
-      <c r="D41" s="40"/>
-      <c r="E41" s="40"/>
-      <c r="F41" s="40"/>
-      <c r="G41" s="40"/>
-      <c r="H41" s="40"/>
-      <c r="I41" s="40"/>
-      <c r="J41" s="40"/>
-      <c r="K41" s="40"/>
-      <c r="L41" s="40"/>
+      <c r="A41" s="34"/>
+      <c r="B41" s="34"/>
+      <c r="C41" s="34"/>
+      <c r="D41" s="34"/>
+      <c r="E41" s="34"/>
+      <c r="F41" s="34"/>
+      <c r="G41" s="34"/>
+      <c r="H41" s="34"/>
+      <c r="I41" s="34"/>
+      <c r="J41" s="34"/>
+      <c r="K41" s="34"/>
+      <c r="L41" s="34"/>
     </row>
     <row r="42" spans="1:12" ht="15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A42" s="41"/>
-      <c r="B42" s="41"/>
-      <c r="C42" s="41"/>
-      <c r="D42" s="41"/>
-      <c r="E42" s="41"/>
-      <c r="F42" s="41"/>
-      <c r="G42" s="41"/>
-      <c r="H42" s="41"/>
-      <c r="I42" s="41"/>
-      <c r="J42" s="41"/>
-      <c r="K42" s="41"/>
-      <c r="L42" s="41"/>
+      <c r="A42" s="35"/>
+      <c r="B42" s="35"/>
+      <c r="C42" s="35"/>
+      <c r="D42" s="35"/>
+      <c r="E42" s="35"/>
+      <c r="F42" s="35"/>
+      <c r="G42" s="35"/>
+      <c r="H42" s="35"/>
+      <c r="I42" s="35"/>
+      <c r="J42" s="35"/>
+      <c r="K42" s="35"/>
+      <c r="L42" s="35"/>
     </row>
   </sheetData>
   <mergeCells count="6">
@@ -6897,7 +6892,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C4EE823C-A952-4512-A973-A9E87B9651C3}">
   <dimension ref="A1:K84"/>
   <sheetViews>
-    <sheetView zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+    <sheetView showGridLines="0" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
       <selection activeCell="M74" sqref="M74"/>
     </sheetView>
   </sheetViews>

--- a/One 97.xlsx
+++ b/One 97.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/4c0877a5f6f3f923/Desktop/Praject/Paytm/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="39" documentId="8_{C440F6FA-D474-49BE-B1F7-852EFA7AE053}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{1D74F4F1-18AE-4DA5-A592-E7C7D61191BF}"/>
+  <xr:revisionPtr revIDLastSave="40" documentId="8_{C440F6FA-D474-49BE-B1F7-852EFA7AE053}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{115CED50-EBF8-457D-BA9F-4147FD740666}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" activeTab="4" xr2:uid="{2E6A5B0E-4BB1-415E-B001-58EFED188FA5}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" activeTab="5" xr2:uid="{2E6A5B0E-4BB1-415E-B001-58EFED188FA5}"/>
   </bookViews>
   <sheets>
     <sheet name="Income Statement" sheetId="1" r:id="rId1"/>
@@ -31,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="168" uniqueCount="115">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="171" uniqueCount="118">
   <si>
     <t>Number of shares</t>
   </si>
@@ -300,12 +300,6 @@
     <t>For MARCH 2021</t>
   </si>
   <si>
-    <t>For the expenses I am using expense to revenue ratio, as we can see the Paytm expeses are more then the revenue historically. Lets take an asuumption the company will break even by FY-26 and the OPM will be at 4% for rest of the years</t>
-  </si>
-  <si>
-    <t xml:space="preserve">AS THE FINANCIAL SERVICES SEGMENT is expected to grow with a 18.5% CAGR and DIGITAL PAYMENT segment is expected to grow with a 15.7% CAGR From the PAYTM financial of last 5 years the company is performing as per the industry growth and even beating it, so assuming that PAYTM will continue to grow with the industry with 20% CAGR 2025-29 </t>
-  </si>
-  <si>
     <t>Projected YOY Growth</t>
   </si>
   <si>
@@ -315,21 +309,12 @@
     <t>OCF(Operating cash flow)</t>
   </si>
   <si>
-    <t>Assuming the OFC growth rate at 18% for the next 5 years as the Capex for paytm is on higher side</t>
-  </si>
-  <si>
     <t>Capex</t>
   </si>
   <si>
     <t>Free Cash Flow</t>
   </si>
   <si>
-    <t>For the compay growing at 20% CAGR it is safe to assume the capex will also grow and from historic trends lets say capex will grow at 12% anually</t>
-  </si>
-  <si>
-    <t>NOTE : I AM PROJECTING THE REVENUES AND CASH FLOW ONLY FOR NEXT 5 FIVE YEARS INSTEAD OF STANDARD 10 YEAR MODEL, AS THE INDUSTRY IN WHICH THE PAYTM OPERATES IS FIN-TECH AND SOME NEW REVOLUTIONARY TECHNOLOGY MAY CAME UP AND MIGHT CHANGE EVERYTHING</t>
-  </si>
-  <si>
     <t>Terminal value</t>
   </si>
   <si>
@@ -376,6 +361,30 @@
   </si>
   <si>
     <t>Conclusion : The significant discrepancy between the DCF model's estimated share price of ₹76.2 and Paytm's current market price suggests potential overvaluation. Several factors might explain this gap, including market sentiment, high growth expectations, or strategic initiatives that aren't fully reflected in the FCF model. Additionally, the market could be factoring in future potential or qualitative aspects that the DCF analysis does not capture. This highlights the importance of considering a range of valuation methods and assumptions when assessing a company's true value.</t>
+  </si>
+  <si>
+    <t>Assumption</t>
+  </si>
+  <si>
+    <t>Assumptions</t>
+  </si>
+  <si>
+    <t>Reveneues are projected for 5 year</t>
+  </si>
+  <si>
+    <t>FINANCIAL SERVICES SEGMENT is expected to grow with a 18.5% CAGR</t>
+  </si>
+  <si>
+    <t>DIGITAL PAYMENT segment is expected to grow with a 15.7% CAGR</t>
+  </si>
+  <si>
+    <t>Growth rate</t>
+  </si>
+  <si>
+    <t>Growth rate for Paytm(Historical data shows outperforming the industry): 20% CAGR</t>
+  </si>
+  <si>
+    <t>Paytm will break even in FY26 and OPM is 4%</t>
   </si>
 </sst>
 </file>
@@ -388,7 +397,7 @@
     <numFmt numFmtId="165" formatCode="_(* #,##0.00_);_(* \(#,##0.00\);_(* &quot;-&quot;??_);_(@_)"/>
     <numFmt numFmtId="166" formatCode="_ * #,##0.0_ ;_ * \-#,##0.0_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
-  <fonts count="6" x14ac:knownFonts="1">
+  <fonts count="7" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -420,20 +429,29 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color theme="0"/>
+      <sz val="8"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="8"/>
+      <i/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="9"/>
+      <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="12">
+  <fills count="10">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -472,18 +490,6 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5" tint="-0.249977111117893"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="4" tint="0.59999389629810485"/>
         <bgColor indexed="64"/>
       </patternFill>
@@ -501,7 +507,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="7">
+  <borders count="4">
     <border>
       <left/>
       <right/>
@@ -515,27 +521,7 @@
       <top style="thin">
         <color indexed="64"/>
       </top>
-      <bottom style="thin">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color indexed="64"/>
-      </top>
       <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="thin">
-        <color indexed="64"/>
-      </bottom>
       <diagonal/>
     </border>
     <border>
@@ -556,27 +542,12 @@
       </bottom>
       <diagonal/>
     </border>
-    <border>
-      <left style="thin">
-        <color indexed="64"/>
-      </left>
-      <right style="thin">
-        <color indexed="64"/>
-      </right>
-      <top style="thin">
-        <color indexed="64"/>
-      </top>
-      <bottom style="thin">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
   <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="43" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="42">
+  <cellXfs count="40">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" xfId="1" applyFont="1" applyBorder="1"/>
     <xf numFmtId="43" fontId="3" fillId="0" borderId="0" xfId="1" applyFont="1" applyBorder="1"/>
@@ -601,10 +572,9 @@
     <xf numFmtId="0" fontId="0" fillId="6" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="9" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="166" fontId="1" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="4" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="2" fontId="0" fillId="5" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
-    <xf numFmtId="2" fontId="0" fillId="9" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
-    <xf numFmtId="2" fontId="0" fillId="10" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
+    <xf numFmtId="2" fontId="0" fillId="7" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
+    <xf numFmtId="2" fontId="0" fillId="8" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
     <xf numFmtId="1" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="2" fontId="0" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
@@ -614,44 +584,35 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="7" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="7" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="7" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="7" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="11" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="9" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="11" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="9" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="11" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="9" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="7" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1"/>
+    <xf numFmtId="43" fontId="3" fillId="2" borderId="0" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="8" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
+    <xf numFmtId="0" fontId="3" fillId="7" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -697,7 +658,7 @@
           <c:order val="0"/>
           <c:tx>
             <c:strRef>
-              <c:f>'Income Statement'!$A$5</c:f>
+              <c:f>'Income Statement'!$B$13</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -802,7 +763,7 @@
           </c:trendline>
           <c:cat>
             <c:strRef>
-              <c:f>'Income Statement'!$B$4:$J$4</c:f>
+              <c:f>'Income Statement'!$C$12:$K$12</c:f>
               <c:strCache>
                 <c:ptCount val="9"/>
                 <c:pt idx="0">
@@ -837,7 +798,7 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>'Income Statement'!$B$5:$J$5</c:f>
+              <c:f>'Income Statement'!$C$13:$K$13</c:f>
               <c:numCache>
                 <c:formatCode>0.00</c:formatCode>
                 <c:ptCount val="9"/>
@@ -1146,7 +1107,7 @@
           <c:order val="0"/>
           <c:tx>
             <c:strRef>
-              <c:f>'Income Statement'!$A$14</c:f>
+              <c:f>'Income Statement'!$B$22</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -1251,7 +1212,7 @@
           </c:trendline>
           <c:cat>
             <c:strRef>
-              <c:f>'Income Statement'!$B$4:$J$4</c:f>
+              <c:f>'Income Statement'!$C$12:$K$12</c:f>
               <c:strCache>
                 <c:ptCount val="9"/>
                 <c:pt idx="0">
@@ -1286,7 +1247,7 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>'Income Statement'!$B$14:$J$14</c:f>
+              <c:f>'Income Statement'!$C$22:$K$22</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="9"/>
@@ -1633,7 +1594,7 @@
           <c:order val="0"/>
           <c:tx>
             <c:strRef>
-              <c:f>Projections!$A$31</c:f>
+              <c:f>Projections!$B$39</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -1741,11 +1702,11 @@
               <c:extLst>
                 <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
                   <c15:fullRef>
-                    <c15:sqref>Projections!$B$20:$G$20</c15:sqref>
+                    <c15:sqref>Projections!$C$28:$H$28</c15:sqref>
                   </c15:fullRef>
                 </c:ext>
               </c:extLst>
-              <c:f>Projections!$C$20:$G$20</c:f>
+              <c:f>Projections!$D$28:$H$28</c:f>
               <c:numCache>
                 <c:formatCode>[$-409]mmm\-yy;@</c:formatCode>
                 <c:ptCount val="5"/>
@@ -1772,11 +1733,11 @@
               <c:extLst>
                 <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
                   <c15:fullRef>
-                    <c15:sqref>Projections!$B$31:$G$31</c15:sqref>
+                    <c15:sqref>Projections!$C$39:$H$39</c15:sqref>
                   </c15:fullRef>
                 </c:ext>
               </c:extLst>
-              <c:f>Projections!$C$31:$G$31</c:f>
+              <c:f>Projections!$D$39:$H$39</c:f>
               <c:numCache>
                 <c:formatCode>0.00</c:formatCode>
                 <c:ptCount val="5"/>
@@ -1800,7 +1761,7 @@
           </c:val>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000000-71A1-4B5D-9700-203F411EF444}"/>
+              <c16:uniqueId val="{00000001-89AF-4B9D-9BBF-3BDCED46CBCC}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -3778,13 +3739,13 @@
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>11</xdr:col>
+      <xdr:col>12</xdr:col>
       <xdr:colOff>588818</xdr:colOff>
       <xdr:row>12</xdr:row>
       <xdr:rowOff>25400</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>22</xdr:col>
+      <xdr:col>23</xdr:col>
       <xdr:colOff>34636</xdr:colOff>
       <xdr:row>32</xdr:row>
       <xdr:rowOff>80818</xdr:rowOff>
@@ -3814,13 +3775,13 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>23</xdr:col>
+      <xdr:col>24</xdr:col>
       <xdr:colOff>127000</xdr:colOff>
       <xdr:row>12</xdr:row>
       <xdr:rowOff>1</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>32</xdr:col>
+      <xdr:col>33</xdr:col>
       <xdr:colOff>588817</xdr:colOff>
       <xdr:row>32</xdr:row>
       <xdr:rowOff>92363</xdr:rowOff>
@@ -3855,27 +3816,29 @@
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>0</xdr:col>
-      <xdr:colOff>1089024</xdr:colOff>
-      <xdr:row>36</xdr:row>
-      <xdr:rowOff>98424</xdr:rowOff>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>44</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>8</xdr:col>
-      <xdr:colOff>387349</xdr:colOff>
-      <xdr:row>53</xdr:row>
-      <xdr:rowOff>44449</xdr:rowOff>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>524023</xdr:colOff>
+      <xdr:row>60</xdr:row>
+      <xdr:rowOff>130619</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
-        <xdr:cNvPr id="3" name="Chart 2">
+        <xdr:cNvPr id="2" name="Chart 1">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{8F7E43C8-E6C2-9114-23A7-4CE67C232D6E}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{019FD50A-EF0E-4076-BE93-5E8678EF1C4C}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
-        <xdr:cNvGraphicFramePr/>
+        <xdr:cNvGraphicFramePr>
+          <a:graphicFrameLocks/>
+        </xdr:cNvGraphicFramePr>
       </xdr:nvGraphicFramePr>
       <xdr:xfrm>
         <a:off x="0" y="0"/>
@@ -4189,1383 +4152,1405 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{643EE0A4-3AA4-4414-AFAA-CA045A05B06A}">
-  <dimension ref="A1:P28"/>
+  <dimension ref="B1:P36"/>
   <sheetViews>
     <sheetView showGridLines="0" zoomScale="55" zoomScaleNormal="55" workbookViewId="0">
-      <selection activeCell="E36" sqref="E36"/>
+      <selection activeCell="B1" sqref="B1:E2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="14.453125" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="10" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="13.81640625" bestFit="1" customWidth="1"/>
-    <col min="4" max="6" width="9.90625" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="10.36328125" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="9.26953125" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="8.81640625" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="10.36328125" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="3.453125" customWidth="1"/>
+    <col min="2" max="2" width="14.453125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="10" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="13.81640625" bestFit="1" customWidth="1"/>
+    <col min="5" max="7" width="9.90625" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="10.36328125" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="9.26953125" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="8.81640625" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="10.36328125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:16" x14ac:dyDescent="0.35">
-      <c r="A1" s="27" t="s">
+    <row r="1" spans="2:16" x14ac:dyDescent="0.35">
+      <c r="B1" s="36" t="s">
         <v>5</v>
       </c>
-      <c r="B1" s="27"/>
-      <c r="C1" s="27"/>
-      <c r="D1" s="27"/>
-    </row>
-    <row r="4" spans="1:16" x14ac:dyDescent="0.35">
-      <c r="A4" s="5" t="s">
-        <v>83</v>
-      </c>
-      <c r="B4" s="5">
-        <v>43525</v>
-      </c>
-      <c r="C4" s="5">
-        <v>43891</v>
-      </c>
-      <c r="D4" s="5">
-        <v>44256</v>
-      </c>
-      <c r="E4" s="5">
-        <v>44621</v>
-      </c>
-      <c r="F4" s="5">
-        <v>44986</v>
-      </c>
-      <c r="G4" s="5">
-        <v>45352</v>
-      </c>
-      <c r="H4" s="5" t="s">
-        <v>50</v>
-      </c>
-      <c r="I4" s="5" t="s">
-        <v>51</v>
-      </c>
-      <c r="J4" s="5" t="s">
-        <v>52</v>
-      </c>
-      <c r="M4" s="9"/>
+      <c r="C1" s="36"/>
+      <c r="D1" s="36"/>
+      <c r="E1" s="36"/>
+    </row>
+    <row r="2" spans="2:16" x14ac:dyDescent="0.35">
+      <c r="B2" s="36"/>
+      <c r="C2" s="36"/>
+      <c r="D2" s="36"/>
+      <c r="E2" s="36"/>
+    </row>
+    <row r="4" spans="2:16" x14ac:dyDescent="0.35">
+      <c r="B4" s="37" t="s">
+        <v>110</v>
+      </c>
+      <c r="C4" s="37"/>
+      <c r="D4" s="37"/>
+      <c r="E4" s="37"/>
       <c r="N4" s="9"/>
       <c r="O4" s="9"/>
-    </row>
-    <row r="5" spans="1:16" x14ac:dyDescent="0.35">
-      <c r="A5" s="10" t="s">
+      <c r="P4" s="9"/>
+    </row>
+    <row r="5" spans="2:16" x14ac:dyDescent="0.35">
+      <c r="B5" s="35" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="6" spans="2:16" x14ac:dyDescent="0.35">
+      <c r="B6" t="s">
+        <v>68</v>
+      </c>
+      <c r="C6" s="35"/>
+      <c r="D6" s="35"/>
+      <c r="E6" s="35"/>
+      <c r="F6" s="35"/>
+    </row>
+    <row r="12" spans="2:16" x14ac:dyDescent="0.35">
+      <c r="B12" s="5" t="s">
+        <v>83</v>
+      </c>
+      <c r="C12" s="5">
+        <v>43525</v>
+      </c>
+      <c r="D12" s="5">
+        <v>43891</v>
+      </c>
+      <c r="E12" s="5">
+        <v>44256</v>
+      </c>
+      <c r="F12" s="5">
+        <v>44621</v>
+      </c>
+      <c r="G12" s="5">
+        <v>44986</v>
+      </c>
+      <c r="H12" s="5">
+        <v>45352</v>
+      </c>
+      <c r="I12" s="5" t="s">
+        <v>50</v>
+      </c>
+      <c r="J12" s="5" t="s">
+        <v>51</v>
+      </c>
+      <c r="K12" s="5" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="13" spans="2:16" x14ac:dyDescent="0.35">
+      <c r="B13" s="10" t="s">
         <v>8</v>
       </c>
-      <c r="B5" s="11">
+      <c r="C13" s="11">
         <v>3224.1</v>
       </c>
-      <c r="C5" s="11">
+      <c r="D13" s="11">
         <v>3278.7</v>
       </c>
-      <c r="D5" s="11">
+      <c r="E13" s="11">
         <v>2801.3</v>
       </c>
-      <c r="E5" s="11">
+      <c r="F13" s="11">
         <v>4974.2</v>
       </c>
-      <c r="F5" s="11">
+      <c r="G13" s="11">
         <v>7990.3</v>
       </c>
-      <c r="G5" s="11">
+      <c r="H13" s="11">
         <v>9977.7999999999993</v>
       </c>
-      <c r="H5" s="11">
+      <c r="I13" s="11">
         <v>1502</v>
       </c>
-      <c r="I5">
-        <f>G5+I26*G5</f>
+      <c r="J13">
+        <f>H13+J34*H13</f>
         <v>15237.94911158094</v>
       </c>
-      <c r="J5">
-        <f>G5+J26*G5</f>
+      <c r="K13">
+        <f>H13+K34*H13</f>
         <v>12459.278859999999</v>
       </c>
     </row>
-    <row r="6" spans="1:16" x14ac:dyDescent="0.35">
-      <c r="A6" t="s">
+    <row r="14" spans="2:16" x14ac:dyDescent="0.35">
+      <c r="B14" t="s">
         <v>82</v>
       </c>
-      <c r="B6" s="11"/>
-      <c r="C6" s="15">
-        <f>(C5-B5)/C5</f>
+      <c r="C14" s="11"/>
+      <c r="D14" s="15">
+        <f>(D13-C13)/D13</f>
         <v>1.6652941714703971E-2</v>
       </c>
-      <c r="D6" s="15">
-        <f t="shared" ref="D6:G6" si="0">(D5-C5)/D5</f>
+      <c r="E14" s="15">
+        <f t="shared" ref="E14:H14" si="0">(E13-D13)/E13</f>
         <v>-0.17042087602184686</v>
       </c>
-      <c r="E6" s="15">
+      <c r="F14" s="15">
         <f t="shared" si="0"/>
         <v>0.43683406376904821</v>
       </c>
-      <c r="F6" s="15">
+      <c r="G14" s="15">
         <f t="shared" si="0"/>
         <v>0.3774701825963982</v>
       </c>
-      <c r="G6" s="15">
+      <c r="H14" s="15">
         <f t="shared" si="0"/>
         <v>0.19919220669887142</v>
       </c>
-      <c r="H6" s="11"/>
-    </row>
-    <row r="7" spans="1:16" x14ac:dyDescent="0.35">
-      <c r="A7" t="s">
+      <c r="I14" s="11"/>
+    </row>
+    <row r="15" spans="2:16" x14ac:dyDescent="0.35">
+      <c r="B15" t="s">
         <v>24</v>
       </c>
-      <c r="B7" s="12">
+      <c r="C15" s="12">
         <f>SUM('Data Sheet'!F14:F20)</f>
         <v>7591.9000000000005</v>
       </c>
-      <c r="C7" s="12">
+      <c r="D15" s="12">
         <f>SUM('Data Sheet'!G14:G20)</f>
         <v>5964</v>
       </c>
-      <c r="D7" s="12">
+      <c r="E15" s="12">
         <f>SUM('Data Sheet'!H14:H20)</f>
         <v>4639.6000000000004</v>
       </c>
-      <c r="E7" s="12">
+      <c r="F15" s="12">
         <f>SUM('Data Sheet'!I14:I20)</f>
         <v>7357.8000000000011</v>
       </c>
-      <c r="F7" s="12">
+      <c r="G15" s="12">
         <f>SUM('Data Sheet'!J14:J20)</f>
         <v>9634</v>
       </c>
-      <c r="G7" s="12">
+      <c r="H15" s="12">
         <f>SUM('Data Sheet'!K14:K20)</f>
         <v>15149.400000000001</v>
       </c>
-      <c r="H7" s="12">
+      <c r="I15" s="12">
         <f>'Data Sheet'!K34</f>
         <v>2295.1</v>
       </c>
-      <c r="I7">
-        <f>I5</f>
+      <c r="J15">
+        <f>J13</f>
         <v>15237.94911158094</v>
       </c>
-      <c r="J7">
-        <f>J5</f>
+      <c r="K15">
+        <f>K13</f>
         <v>12459.278859999999</v>
       </c>
-      <c r="L7" s="28" t="s">
-        <v>67</v>
-      </c>
-      <c r="M7" s="28"/>
-      <c r="N7" s="28"/>
-      <c r="O7" s="28"/>
-      <c r="P7" s="28"/>
-    </row>
-    <row r="8" spans="1:16" x14ac:dyDescent="0.35">
-      <c r="A8" s="10" t="s">
+    </row>
+    <row r="16" spans="2:16" x14ac:dyDescent="0.35">
+      <c r="B16" s="10" t="s">
         <v>25</v>
       </c>
-      <c r="B8" s="12">
-        <f>B5-B7</f>
+      <c r="C16" s="12">
+        <f>C13-C15</f>
         <v>-4367.8000000000011</v>
       </c>
-      <c r="C8" s="12">
-        <f>C5-C7</f>
+      <c r="D16" s="12">
+        <f>D13-D15</f>
         <v>-2685.3</v>
       </c>
-      <c r="D8" s="12">
-        <f>D5-D7</f>
+      <c r="E16" s="12">
+        <f>E13-E15</f>
         <v>-1838.3000000000002</v>
       </c>
-      <c r="E8" s="12">
-        <f>E5-E7</f>
+      <c r="F16" s="12">
+        <f>F13-F15</f>
         <v>-2383.6000000000013</v>
       </c>
-      <c r="F8" s="12">
-        <f t="shared" ref="F8:G8" si="1">F5-F7</f>
+      <c r="G16" s="12">
+        <f t="shared" ref="G16:H16" si="1">G13-G15</f>
         <v>-1643.6999999999998</v>
       </c>
-      <c r="G8" s="12">
+      <c r="H16" s="12">
         <f t="shared" si="1"/>
         <v>-5171.6000000000022</v>
       </c>
-      <c r="H8" s="12">
-        <f>H5-H7</f>
+      <c r="I16" s="12">
+        <f>I13-I15</f>
         <v>-793.09999999999991</v>
       </c>
-      <c r="I8" s="12">
-        <f>I5*I27</f>
+      <c r="J16" s="12">
+        <f>J13*J35</f>
         <v>0</v>
       </c>
-      <c r="J8" s="12">
-        <f>J5*J27</f>
+      <c r="K16" s="12">
+        <f>K13*K35</f>
         <v>0</v>
       </c>
     </row>
-    <row r="9" spans="1:16" x14ac:dyDescent="0.35">
-      <c r="A9" t="s">
+    <row r="17" spans="2:11" x14ac:dyDescent="0.35">
+      <c r="B17" t="s">
         <v>16</v>
       </c>
-      <c r="B9">
+      <c r="C17">
         <v>279.8</v>
       </c>
-      <c r="C9">
+      <c r="D17">
         <v>-44.8</v>
       </c>
-      <c r="D9">
+      <c r="E17">
         <v>356.3</v>
       </c>
-      <c r="E9">
+      <c r="F17">
         <v>287.7</v>
       </c>
-      <c r="F9">
+      <c r="G17">
         <v>409.7</v>
       </c>
-      <c r="G9">
+      <c r="H17">
         <v>541.20000000000005</v>
       </c>
-      <c r="H9">
+      <c r="I17">
         <f>'Data Sheet'!K35</f>
         <v>137.5</v>
       </c>
-      <c r="I9">
-        <f>G9</f>
+      <c r="J17">
+        <f>H17</f>
         <v>541.20000000000005</v>
       </c>
-      <c r="J9">
-        <f>G9</f>
+      <c r="K17">
+        <f>H17</f>
         <v>541.20000000000005</v>
       </c>
-      <c r="L9" t="s">
-        <v>68</v>
-      </c>
-    </row>
-    <row r="10" spans="1:16" x14ac:dyDescent="0.35">
-      <c r="A10" t="s">
+    </row>
+    <row r="18" spans="2:11" x14ac:dyDescent="0.35">
+      <c r="B18" t="s">
         <v>17</v>
       </c>
-      <c r="B10">
+      <c r="C18">
         <v>111.6</v>
       </c>
-      <c r="C10">
+      <c r="D18">
         <v>174.5</v>
       </c>
-      <c r="D10">
+      <c r="E18">
         <v>178.5</v>
       </c>
-      <c r="E10">
+      <c r="F18">
         <v>247.3</v>
       </c>
-      <c r="F10">
+      <c r="G18">
         <v>485.3</v>
       </c>
-      <c r="G10">
+      <c r="H18">
         <v>735.7</v>
       </c>
-      <c r="H10">
+      <c r="I18">
         <f>'Data Sheet'!K36</f>
         <v>178.4</v>
       </c>
-      <c r="I10">
-        <f>G10</f>
+      <c r="J18">
+        <f>H18</f>
         <v>735.7</v>
       </c>
-      <c r="J10">
-        <f>G10</f>
+      <c r="K18">
+        <f>H18</f>
         <v>735.7</v>
       </c>
     </row>
-    <row r="11" spans="1:16" x14ac:dyDescent="0.35">
-      <c r="A11" t="s">
+    <row r="19" spans="2:11" x14ac:dyDescent="0.35">
+      <c r="B19" t="s">
         <v>18</v>
       </c>
-      <c r="B11">
+      <c r="C19">
         <v>37.799999999999997</v>
       </c>
-      <c r="C11">
+      <c r="D19">
         <v>53.6</v>
       </c>
-      <c r="D11">
+      <c r="E19">
         <v>37.799999999999997</v>
       </c>
-      <c r="E11">
+      <c r="F19">
         <v>41.9</v>
       </c>
-      <c r="F11">
+      <c r="G19">
         <v>23.6</v>
       </c>
-      <c r="G11">
+      <c r="H19">
         <v>24.3</v>
       </c>
-      <c r="H11">
+      <c r="I19">
         <f>'Data Sheet'!K37</f>
         <v>4.2</v>
       </c>
-      <c r="I11">
-        <f>G11</f>
+      <c r="J19">
+        <f>H19</f>
         <v>24.3</v>
       </c>
-      <c r="J11">
-        <f>G11</f>
+      <c r="K19">
+        <f>H19</f>
         <v>24.3</v>
       </c>
     </row>
-    <row r="12" spans="1:16" x14ac:dyDescent="0.35">
-      <c r="A12" t="s">
+    <row r="20" spans="2:11" x14ac:dyDescent="0.35">
+      <c r="B20" t="s">
         <v>19</v>
       </c>
-      <c r="B12">
+      <c r="C20">
         <v>-4237.3999999999996</v>
       </c>
-      <c r="C12">
+      <c r="D20">
         <v>-2958.2</v>
       </c>
-      <c r="D12">
+      <c r="E20">
         <v>-1698.3</v>
       </c>
-      <c r="E12">
+      <c r="F20">
         <v>-2385.1</v>
       </c>
-      <c r="F12">
+      <c r="G20">
         <v>-1742.9</v>
       </c>
-      <c r="G12">
+      <c r="H20">
         <v>-1390.4</v>
       </c>
-      <c r="H12">
+      <c r="I20">
         <f>'Data Sheet'!K38</f>
         <v>-838.6</v>
       </c>
-      <c r="I12">
-        <f>G12</f>
+      <c r="J20">
+        <f>H20</f>
         <v>-1390.4</v>
       </c>
-      <c r="J12">
-        <f>G12</f>
+      <c r="K20">
+        <f>H20</f>
         <v>-1390.4</v>
       </c>
     </row>
-    <row r="13" spans="1:16" x14ac:dyDescent="0.35">
-      <c r="A13" t="s">
+    <row r="21" spans="2:11" x14ac:dyDescent="0.35">
+      <c r="B21" t="s">
         <v>20</v>
       </c>
-      <c r="B13">
+      <c r="C21">
         <v>-6.5</v>
       </c>
-      <c r="C13">
+      <c r="D21">
         <v>-15.8</v>
       </c>
-      <c r="D13">
+      <c r="E21">
         <v>2.7</v>
       </c>
-      <c r="E13">
+      <c r="F21">
         <v>11.3</v>
       </c>
-      <c r="F13">
+      <c r="G21">
         <v>33.6</v>
       </c>
-      <c r="G13">
+      <c r="H21">
         <v>32</v>
       </c>
-      <c r="H13">
+      <c r="I21">
         <f>'Data Sheet'!K39</f>
         <v>1.5</v>
       </c>
-      <c r="I13" s="15">
+      <c r="J21" s="15">
         <v>0</v>
       </c>
-      <c r="J13" s="15">
+      <c r="K21" s="15">
         <v>0</v>
       </c>
     </row>
-    <row r="14" spans="1:16" x14ac:dyDescent="0.35">
-      <c r="A14" s="10" t="s">
+    <row r="22" spans="2:11" x14ac:dyDescent="0.35">
+      <c r="B22" s="10" t="s">
         <v>21</v>
       </c>
-      <c r="B14">
+      <c r="C22">
         <v>-4181.6000000000004</v>
       </c>
-      <c r="C14">
+      <c r="D22">
         <v>-2842.2</v>
       </c>
-      <c r="D14">
+      <c r="E22">
         <v>-1696.1</v>
       </c>
-      <c r="E14">
+      <c r="F22">
         <v>-2392.9</v>
       </c>
-      <c r="F14">
+      <c r="G22">
         <v>-1775.9</v>
       </c>
-      <c r="G14">
+      <c r="H22">
         <v>-1417</v>
       </c>
-      <c r="H14">
+      <c r="I22">
         <f>'Data Sheet'!K40</f>
         <v>-838.9</v>
       </c>
-      <c r="I14">
-        <f>I12-I13*I12</f>
+      <c r="J22">
+        <f>J20-J21*J20</f>
         <v>-1390.4</v>
       </c>
-      <c r="J14">
-        <f>J12-J13*J12</f>
+      <c r="K22">
+        <f>K20-K21*K20</f>
         <v>-1390.4</v>
       </c>
     </row>
-    <row r="15" spans="1:16" x14ac:dyDescent="0.35">
-      <c r="A15" t="s">
+    <row r="23" spans="2:11" x14ac:dyDescent="0.35">
+      <c r="B23" t="s">
         <v>53</v>
       </c>
-      <c r="B15" s="11">
+      <c r="C23" s="11">
         <f>IF('Data Sheet'!F84&gt;0,'Data Sheet'!F26/'Data Sheet'!F84,0)</f>
         <v>-727.2347826086957</v>
       </c>
-      <c r="C15" s="11">
+      <c r="D23" s="11">
         <f>IF('Data Sheet'!G84&gt;0,'Data Sheet'!G26/'Data Sheet'!G84,0)</f>
         <v>-470.56291390728472</v>
       </c>
-      <c r="D15" s="11">
+      <c r="E23" s="11">
         <f>IF('Data Sheet'!H84&gt;0,'Data Sheet'!H26/'Data Sheet'!H84,0)</f>
         <v>-280.34710743801651</v>
       </c>
-      <c r="E15" s="11">
+      <c r="F23" s="11">
         <f>IF('Data Sheet'!I84&gt;0,'Data Sheet'!I26/'Data Sheet'!I84,0)</f>
         <v>-36.89330866481653</v>
       </c>
-      <c r="F15" s="11">
+      <c r="G23" s="11">
         <f>IF('Data Sheet'!J84&gt;0,'Data Sheet'!J26/'Data Sheet'!J84,0)</f>
         <v>-28.019880088355947</v>
       </c>
-      <c r="G15" s="11">
+      <c r="H23" s="11">
         <f>IF('Data Sheet'!K84&gt;0,'Data Sheet'!K26/'Data Sheet'!K84,0)</f>
         <v>-22.300912810827825</v>
       </c>
-      <c r="H15" s="11">
+      <c r="I23" s="11">
         <f>IF('Data Sheet'!$K$84&gt;0,'Data Sheet'!$K$40/'Data Sheet'!$K$84,0)</f>
         <v>-13.202706956248033</v>
       </c>
-      <c r="I15" s="11">
+      <c r="J23" s="11">
         <f>IF('Data Sheet'!$K$84&gt;0,'Data Sheet'!$K$40/'Data Sheet'!$K$84,0)</f>
         <v>-13.202706956248033</v>
       </c>
-      <c r="J15" s="11">
+      <c r="K23" s="11">
         <f>IF('Data Sheet'!$K$84&gt;0,'Data Sheet'!$K$40/'Data Sheet'!$K$84,0)</f>
         <v>-13.202706956248033</v>
       </c>
     </row>
-    <row r="16" spans="1:16" x14ac:dyDescent="0.35">
-      <c r="A16" t="s">
+    <row r="24" spans="2:11" x14ac:dyDescent="0.35">
+      <c r="B24" t="s">
         <v>54</v>
       </c>
-      <c r="B16" t="str">
-        <f>IF(B17&gt;0,B17/B15,"")</f>
+      <c r="C24" t="str">
+        <f>IF(C25&gt;0,C25/C23,"")</f>
         <v/>
       </c>
-      <c r="C16" t="str">
-        <f t="shared" ref="C16:G16" si="2">IF(C17&gt;0,C17/C15,"")</f>
+      <c r="D24" t="str">
+        <f t="shared" ref="D24:H24" si="2">IF(D25&gt;0,D25/D23,"")</f>
         <v/>
       </c>
-      <c r="D16" t="str">
+      <c r="E24" t="str">
         <f t="shared" si="2"/>
         <v/>
       </c>
-      <c r="E16" s="11">
+      <c r="F24" s="11">
         <f t="shared" si="2"/>
         <v>-14.323735634585649</v>
       </c>
-      <c r="F16" s="11">
+      <c r="G24" s="11">
         <f t="shared" si="2"/>
         <v>-22.726721099160986</v>
       </c>
-      <c r="G16" s="11">
+      <c r="H24" s="11">
         <f t="shared" si="2"/>
         <v>-18.05531474947071</v>
       </c>
-      <c r="H16" s="11">
-        <f t="shared" ref="H16" si="3">IF(H17&gt;0,H17/H15,"")</f>
+      <c r="I24" s="11">
+        <f t="shared" ref="I24" si="3">IF(I25&gt;0,I25/I23,"")</f>
         <v>-39.007152223149362</v>
       </c>
-      <c r="I16" s="11" t="str">
-        <f t="shared" ref="I16" si="4">IF(I17&gt;0,I17/I15,"")</f>
+      <c r="J24" s="11" t="str">
+        <f t="shared" ref="J24" si="4">IF(J25&gt;0,J25/J23,"")</f>
         <v/>
       </c>
-      <c r="J16" s="11" t="str">
-        <f t="shared" ref="J16" si="5">IF(J17&gt;0,J17/J15,"")</f>
+      <c r="K24" s="11" t="str">
+        <f t="shared" ref="K24" si="5">IF(K25&gt;0,K25/K23,"")</f>
         <v/>
       </c>
     </row>
-    <row r="17" spans="1:10" x14ac:dyDescent="0.35">
-      <c r="A17" s="10" t="s">
+    <row r="25" spans="2:11" x14ac:dyDescent="0.35">
+      <c r="B25" s="10" t="s">
         <v>55</v>
       </c>
-      <c r="B17" s="12">
+      <c r="C25" s="12">
         <f>'Data Sheet'!F81</f>
         <v>0</v>
       </c>
-      <c r="C17" s="12">
+      <c r="D25" s="12">
         <f>'Data Sheet'!G81</f>
         <v>0</v>
       </c>
-      <c r="D17" s="12">
+      <c r="E25" s="12">
         <f>'Data Sheet'!H81</f>
         <v>0</v>
       </c>
-      <c r="E17" s="12">
+      <c r="F25" s="12">
         <f>'Data Sheet'!I81</f>
         <v>528.45000000000005</v>
       </c>
-      <c r="F17" s="12">
+      <c r="G25" s="12">
         <f>'Data Sheet'!J81</f>
         <v>636.79999999999995</v>
       </c>
-      <c r="G17" s="12">
+      <c r="H25" s="12">
         <f>'Data Sheet'!K81</f>
         <v>402.65</v>
       </c>
-      <c r="H17">
+      <c r="I25">
         <v>515</v>
       </c>
-      <c r="I17" s="16"/>
-      <c r="J17" s="17"/>
-    </row>
-    <row r="19" spans="1:10" x14ac:dyDescent="0.35">
-      <c r="A19" s="10" t="s">
+      <c r="J25" s="16"/>
+      <c r="K25" s="17"/>
+    </row>
+    <row r="27" spans="2:11" x14ac:dyDescent="0.35">
+      <c r="B27" s="10" t="s">
         <v>56</v>
       </c>
     </row>
-    <row r="20" spans="1:10" x14ac:dyDescent="0.35">
-      <c r="A20" t="s">
+    <row r="28" spans="2:11" x14ac:dyDescent="0.35">
+      <c r="B28" t="s">
         <v>57</v>
       </c>
-      <c r="B20" s="13">
+      <c r="C28" s="13">
         <f>IF('Data Sheet'!B31&gt;0, 'Data Sheet'!B32/'Data Sheet'!B31, 0)</f>
         <v>0</v>
       </c>
-      <c r="C20" s="13">
+      <c r="D28" s="13">
         <f>IF('Data Sheet'!C31&gt;0, 'Data Sheet'!C32/'Data Sheet'!C31, 0)</f>
         <v>0</v>
       </c>
-      <c r="D20" s="13">
+      <c r="E28" s="13">
         <f>IF('Data Sheet'!D31&gt;0, 'Data Sheet'!D32/'Data Sheet'!D31, 0)</f>
         <v>0</v>
       </c>
-      <c r="E20" s="13">
+      <c r="F28" s="13">
         <f>IF('Data Sheet'!E31&gt;0, 'Data Sheet'!E32/'Data Sheet'!E31, 0)</f>
         <v>0</v>
       </c>
-      <c r="F20" s="13">
+      <c r="G28" s="13">
         <f>IF('Data Sheet'!F31&gt;0, 'Data Sheet'!F32/'Data Sheet'!F31, 0)</f>
         <v>0</v>
       </c>
-      <c r="G20" s="13">
+      <c r="H28" s="13">
         <f>IF('Data Sheet'!G31&gt;0, 'Data Sheet'!G32/'Data Sheet'!G31, 0)</f>
         <v>0</v>
       </c>
     </row>
-    <row r="21" spans="1:10" x14ac:dyDescent="0.35">
-      <c r="A21" t="s">
+    <row r="29" spans="2:11" x14ac:dyDescent="0.35">
+      <c r="B29" t="s">
         <v>58</v>
       </c>
-      <c r="B21" s="13">
-        <f t="shared" ref="B21:H21" si="6">IF(B8&gt;0,B8/B5,0)</f>
+      <c r="C29" s="13">
+        <f t="shared" ref="C29:I29" si="6">IF(C16&gt;0,C16/C13,0)</f>
         <v>0</v>
       </c>
-      <c r="C21" s="13">
+      <c r="D29" s="13">
         <f t="shared" si="6"/>
         <v>0</v>
       </c>
-      <c r="D21" s="13">
+      <c r="E29" s="13">
         <f t="shared" si="6"/>
         <v>0</v>
       </c>
-      <c r="E21" s="13">
+      <c r="F29" s="13">
         <f t="shared" si="6"/>
         <v>0</v>
       </c>
-      <c r="F21" s="13">
+      <c r="G29" s="13">
         <f t="shared" si="6"/>
         <v>0</v>
       </c>
-      <c r="G21" s="13">
+      <c r="H29" s="13">
         <f t="shared" si="6"/>
         <v>0</v>
       </c>
-      <c r="H21" s="13">
+      <c r="I29" s="13">
         <f t="shared" si="6"/>
         <v>0</v>
       </c>
     </row>
-    <row r="25" spans="1:10" x14ac:dyDescent="0.35">
-      <c r="A25" s="5"/>
-      <c r="B25" s="5"/>
-      <c r="C25" s="5" t="s">
+    <row r="33" spans="2:11" x14ac:dyDescent="0.35">
+      <c r="B33" s="5"/>
+      <c r="C33" s="5"/>
+      <c r="D33" s="5" t="s">
         <v>59</v>
       </c>
-      <c r="D25" s="5"/>
-      <c r="E25" s="5"/>
-      <c r="F25" s="5" t="s">
+      <c r="E33" s="5"/>
+      <c r="F33" s="5"/>
+      <c r="G33" s="5" t="s">
         <v>60</v>
       </c>
-      <c r="G25" s="5" t="s">
+      <c r="H33" s="5" t="s">
         <v>61</v>
       </c>
-      <c r="H25" s="8" t="s">
+      <c r="I33" s="8" t="s">
         <v>62</v>
       </c>
-      <c r="I25" s="8" t="s">
+      <c r="J33" s="8" t="s">
         <v>63</v>
       </c>
-      <c r="J25" s="8" t="s">
+      <c r="K33" s="8" t="s">
         <v>64</v>
       </c>
     </row>
-    <row r="26" spans="1:10" x14ac:dyDescent="0.35">
-      <c r="C26" t="s">
+    <row r="34" spans="2:11" x14ac:dyDescent="0.35">
+      <c r="D34" t="s">
         <v>65</v>
       </c>
-      <c r="D26" s="13"/>
-      <c r="E26" s="13"/>
-      <c r="F26" s="13">
-        <f>IF(B5=0,"",POWER($G5/B5,1/5)-1)</f>
+      <c r="E34" s="13"/>
+      <c r="F34" s="13"/>
+      <c r="G34" s="13">
+        <f>IF(C13=0,"",POWER($H13/C13,1/5)-1)</f>
         <v>0.25350265504788339</v>
       </c>
-      <c r="G26" s="13">
-        <f>IF(D5=0,"",POWER($G5/D5,1/3)-1)</f>
+      <c r="H34" s="13">
+        <f>IF(E13=0,"",POWER($H13/E13,1/3)-1)</f>
         <v>0.52718526244071251</v>
       </c>
-      <c r="H26" s="13">
+      <c r="I34" s="13">
         <v>0.2487</v>
       </c>
-      <c r="I26" s="14">
-        <f>MAX(G26:H26)</f>
+      <c r="J34" s="14">
+        <f>MAX(H34:I34)</f>
         <v>0.52718526244071251</v>
       </c>
-      <c r="J26" s="14">
-        <f>MIN(D26:H26)</f>
+      <c r="K34" s="14">
+        <f>MIN(E34:I34)</f>
         <v>0.2487</v>
       </c>
     </row>
-    <row r="27" spans="1:10" x14ac:dyDescent="0.35">
-      <c r="C27" t="s">
+    <row r="35" spans="2:11" x14ac:dyDescent="0.35">
+      <c r="D35" t="s">
         <v>58</v>
       </c>
-      <c r="D27" s="13"/>
-      <c r="E27" s="13"/>
-      <c r="F27" s="13">
-        <f t="shared" ref="F27:G27" si="7">F22</f>
+      <c r="E35" s="13"/>
+      <c r="F35" s="13"/>
+      <c r="G35" s="13">
+        <f t="shared" ref="G35:H35" si="7">G30</f>
         <v>0</v>
       </c>
-      <c r="G27" s="13">
+      <c r="H35" s="13">
         <f t="shared" si="7"/>
         <v>0</v>
       </c>
-      <c r="H27" s="13">
-        <f>H22</f>
+      <c r="I35" s="13">
+        <f>I30</f>
         <v>0</v>
       </c>
-      <c r="I27" s="14">
-        <f>MAX(G27:H27)</f>
+      <c r="J35" s="14">
+        <f>MAX(H35:I35)</f>
         <v>0</v>
       </c>
-      <c r="J27" s="14">
-        <f>MIN(D27:H27)</f>
+      <c r="K35" s="14">
+        <f>MIN(E35:I35)</f>
         <v>0</v>
       </c>
     </row>
-    <row r="28" spans="1:10" x14ac:dyDescent="0.35">
-      <c r="C28" t="s">
+    <row r="36" spans="2:11" x14ac:dyDescent="0.35">
+      <c r="D36" t="s">
         <v>66</v>
       </c>
-      <c r="D28" s="6"/>
-      <c r="E28" s="6"/>
-      <c r="F28" s="6" t="str">
-        <f>IF(ISERROR(AVERAGEIF(B16:$G16,"&gt;0")),"",AVERAGEIF(B15:$G15,"&gt;0"))</f>
+      <c r="E36" s="6"/>
+      <c r="F36" s="6"/>
+      <c r="G36" s="6" t="str">
+        <f>IF(ISERROR(AVERAGEIF(C24:$H24,"&gt;0")),"",AVERAGEIF(C23:$H23,"&gt;0"))</f>
         <v/>
       </c>
-      <c r="G28" s="6" t="str">
-        <f>IF(ISERROR(AVERAGEIF(C16:$G16,"&gt;0")),"",AVERAGEIF(C15:$G15,"&gt;0"))</f>
+      <c r="H36" s="6" t="str">
+        <f>IF(ISERROR(AVERAGEIF(D24:$H24,"&gt;0")),"",AVERAGEIF(D23:$H23,"&gt;0"))</f>
         <v/>
       </c>
-      <c r="H28" s="6">
-        <f>H16</f>
+      <c r="I36" s="6">
+        <f>I24</f>
         <v>-39.007152223149362</v>
       </c>
-      <c r="I28" s="6">
-        <f>MAX(F28:H28)</f>
+      <c r="J36" s="6">
+        <f>MAX(G36:I36)</f>
         <v>-39.007152223149362</v>
       </c>
-      <c r="J28" s="6">
-        <f>MIN(F28:H28)</f>
+      <c r="K36" s="6">
+        <f>MIN(G36:I36)</f>
         <v>-39.007152223149362</v>
       </c>
     </row>
   </sheetData>
-  <mergeCells count="2">
-    <mergeCell ref="A1:D1"/>
-    <mergeCell ref="L7:P7"/>
+  <mergeCells count="1">
+    <mergeCell ref="B1:E2"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <ignoredErrors>
-    <ignoredError sqref="G26" formula="1"/>
-  </ignoredErrors>
   <drawing r:id="rId1"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{55E95EC0-2E79-49BE-AC83-CAB4571A3A9F}">
-  <dimension ref="A1:K34"/>
+  <dimension ref="B1:L34"/>
   <sheetViews>
     <sheetView showGridLines="0" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="K26" sqref="K26"/>
+      <selection activeCell="B1" sqref="B1:E2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="22.26953125" bestFit="1" customWidth="1"/>
-    <col min="4" max="8" width="14.26953125" bestFit="1" customWidth="1"/>
-    <col min="9" max="10" width="15.26953125" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="10.26953125" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="2.90625" customWidth="1"/>
+    <col min="2" max="2" width="22.26953125" bestFit="1" customWidth="1"/>
+    <col min="5" max="9" width="14.26953125" bestFit="1" customWidth="1"/>
+    <col min="10" max="11" width="15.26953125" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="10.26953125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:11" x14ac:dyDescent="0.35">
-      <c r="A1" s="27" t="s">
+    <row r="1" spans="2:12" x14ac:dyDescent="0.35">
+      <c r="B1" s="36" t="s">
         <v>5</v>
       </c>
-      <c r="B1" s="27"/>
-      <c r="C1" s="27"/>
-      <c r="D1" s="27"/>
-    </row>
-    <row r="4" spans="1:11" x14ac:dyDescent="0.35">
-      <c r="A4" s="12" t="str">
+      <c r="C1" s="36"/>
+      <c r="D1" s="36"/>
+      <c r="E1" s="36"/>
+    </row>
+    <row r="2" spans="2:12" x14ac:dyDescent="0.35">
+      <c r="B2" s="36"/>
+      <c r="C2" s="36"/>
+      <c r="D2" s="36"/>
+      <c r="E2" s="36"/>
+    </row>
+    <row r="4" spans="2:12" x14ac:dyDescent="0.35">
+      <c r="B4" s="12" t="str">
         <f>'Data Sheet'!A46</f>
         <v>BALANCE SHEET</v>
       </c>
     </row>
-    <row r="5" spans="1:11" x14ac:dyDescent="0.35">
-      <c r="A5" s="4" t="s">
+    <row r="5" spans="2:12" x14ac:dyDescent="0.35">
+      <c r="B5" s="4" t="s">
         <v>7</v>
       </c>
-      <c r="B5" s="5"/>
       <c r="C5" s="5"/>
-      <c r="D5" s="5">
+      <c r="D5" s="5"/>
+      <c r="E5" s="5">
         <v>42094</v>
       </c>
-      <c r="E5" s="5">
+      <c r="F5" s="5">
         <v>42460</v>
       </c>
-      <c r="F5" s="5">
+      <c r="G5" s="5">
         <v>43555</v>
       </c>
-      <c r="G5" s="5">
+      <c r="H5" s="5">
         <v>43921</v>
       </c>
-      <c r="H5" s="5">
+      <c r="I5" s="5">
         <v>44286</v>
       </c>
-      <c r="I5" s="5">
+      <c r="J5" s="5">
         <v>44651</v>
       </c>
-      <c r="J5" s="5">
+      <c r="K5" s="5">
         <v>45016</v>
       </c>
-      <c r="K5" s="5">
+      <c r="L5" s="5">
         <v>45382</v>
       </c>
     </row>
-    <row r="6" spans="1:11" x14ac:dyDescent="0.35">
-      <c r="A6" s="6" t="s">
+    <row r="6" spans="2:12" x14ac:dyDescent="0.35">
+      <c r="B6" s="6" t="s">
         <v>27</v>
       </c>
-      <c r="D6">
+      <c r="E6">
         <f>'Data Sheet'!D48</f>
         <v>30.24</v>
       </c>
-      <c r="E6">
+      <c r="F6">
         <f>'Data Sheet'!E48</f>
         <v>46.23</v>
       </c>
-      <c r="F6">
+      <c r="G6">
         <f>'Data Sheet'!F48</f>
         <v>57.5</v>
       </c>
-      <c r="G6">
+      <c r="H6">
         <f>'Data Sheet'!G48</f>
         <v>60.4</v>
       </c>
-      <c r="H6">
+      <c r="I6">
         <f>'Data Sheet'!H48</f>
         <v>60.5</v>
       </c>
-      <c r="I6">
+      <c r="J6">
         <f>'Data Sheet'!I48</f>
         <v>64.900000000000006</v>
       </c>
-      <c r="J6">
+      <c r="K6">
         <f>'Data Sheet'!J48</f>
         <v>63.4</v>
       </c>
-      <c r="K6">
+      <c r="L6">
         <f>'Data Sheet'!K48</f>
         <v>63.6</v>
       </c>
     </row>
-    <row r="7" spans="1:11" x14ac:dyDescent="0.35">
-      <c r="A7" s="6" t="s">
+    <row r="7" spans="2:12" x14ac:dyDescent="0.35">
+      <c r="B7" s="6" t="s">
         <v>28</v>
       </c>
-      <c r="D7">
+      <c r="E7">
         <f>'Data Sheet'!D49</f>
         <v>354.32</v>
       </c>
-      <c r="E7">
+      <c r="F7">
         <f>'Data Sheet'!E49</f>
         <v>2751.39</v>
       </c>
-      <c r="F7">
+      <c r="G7">
         <f>'Data Sheet'!F49</f>
         <v>5667.4</v>
       </c>
-      <c r="G7">
+      <c r="H7">
         <f>'Data Sheet'!G49</f>
         <v>8044.8</v>
       </c>
-      <c r="H7">
+      <c r="I7">
         <f>'Data Sheet'!H49</f>
         <v>6474.3</v>
       </c>
-      <c r="I7">
+      <c r="J7">
         <f>'Data Sheet'!I49</f>
         <v>14086.7</v>
       </c>
-      <c r="J7">
+      <c r="K7">
         <f>'Data Sheet'!J49</f>
         <v>12952.2</v>
       </c>
-      <c r="K7">
+      <c r="L7">
         <f>'Data Sheet'!K49</f>
         <v>13263</v>
       </c>
     </row>
-    <row r="8" spans="1:11" x14ac:dyDescent="0.35">
-      <c r="A8" s="6" t="s">
+    <row r="8" spans="2:12" x14ac:dyDescent="0.35">
+      <c r="B8" s="6" t="s">
         <v>29</v>
       </c>
-      <c r="D8">
+      <c r="E8">
         <f>'Data Sheet'!D50</f>
         <v>0</v>
       </c>
-      <c r="E8">
+      <c r="F8">
         <f>'Data Sheet'!E50</f>
         <v>14.98</v>
       </c>
-      <c r="F8">
+      <c r="G8">
         <f>'Data Sheet'!F50</f>
         <v>932.3</v>
       </c>
-      <c r="G8">
+      <c r="H8">
         <f>'Data Sheet'!G50</f>
         <v>428.1</v>
       </c>
-      <c r="H8">
+      <c r="I8">
         <f>'Data Sheet'!H50</f>
         <v>612</v>
       </c>
-      <c r="I8">
+      <c r="J8">
         <f>'Data Sheet'!I50</f>
         <v>221.5</v>
       </c>
-      <c r="J8">
+      <c r="K8">
         <f>'Data Sheet'!J50</f>
         <v>223.3</v>
       </c>
-      <c r="K8">
+      <c r="L8">
         <f>'Data Sheet'!K50</f>
         <v>176.6</v>
       </c>
     </row>
-    <row r="9" spans="1:11" x14ac:dyDescent="0.35">
-      <c r="A9" s="6" t="s">
+    <row r="9" spans="2:12" x14ac:dyDescent="0.35">
+      <c r="B9" s="6" t="s">
         <v>30</v>
       </c>
-      <c r="D9">
+      <c r="E9">
         <f>'Data Sheet'!D51</f>
         <v>316.37</v>
       </c>
-      <c r="E9">
+      <c r="F9">
         <f>'Data Sheet'!E51</f>
         <v>637.46</v>
       </c>
-      <c r="F9">
+      <c r="G9">
         <f>'Data Sheet'!F51</f>
         <v>2106.6</v>
       </c>
-      <c r="G9">
+      <c r="H9">
         <f>'Data Sheet'!G51</f>
         <v>1768.7</v>
       </c>
-      <c r="H9">
+      <c r="I9">
         <f>'Data Sheet'!H51</f>
         <v>2003.9</v>
       </c>
-      <c r="I9">
+      <c r="J9">
         <f>'Data Sheet'!I51</f>
         <v>3618.3</v>
       </c>
-      <c r="J9">
+      <c r="K9">
         <f>'Data Sheet'!J51</f>
         <v>4726.8999999999996</v>
       </c>
-      <c r="K9">
+      <c r="L9">
         <f>'Data Sheet'!K51</f>
         <v>3635.9</v>
       </c>
     </row>
-    <row r="10" spans="1:11" ht="14" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A10" s="2" t="s">
+    <row r="10" spans="2:12" ht="14" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="B10" s="2" t="s">
         <v>31</v>
       </c>
-      <c r="D10">
+      <c r="E10">
         <f>'Data Sheet'!D52</f>
         <v>700.93</v>
       </c>
-      <c r="E10">
+      <c r="F10">
         <f>'Data Sheet'!E52</f>
         <v>3450.06</v>
       </c>
-      <c r="F10">
+      <c r="G10">
         <f>'Data Sheet'!F52</f>
         <v>8763.7999999999993</v>
       </c>
-      <c r="G10">
+      <c r="H10">
         <f>'Data Sheet'!G52</f>
         <v>10302</v>
       </c>
-      <c r="H10">
+      <c r="I10">
         <f>'Data Sheet'!H52</f>
         <v>9150.7000000000007</v>
       </c>
-      <c r="I10">
+      <c r="J10">
         <f>'Data Sheet'!I52</f>
         <v>17991.400000000001</v>
       </c>
-      <c r="J10">
+      <c r="K10">
         <f>'Data Sheet'!J52</f>
         <v>17965.8</v>
       </c>
-      <c r="K10">
+      <c r="L10">
         <f>'Data Sheet'!K52</f>
         <v>17139.099999999999</v>
       </c>
     </row>
-    <row r="11" spans="1:11" ht="14" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A11" s="2"/>
-    </row>
-    <row r="12" spans="1:11" x14ac:dyDescent="0.35">
-      <c r="A12" s="6" t="s">
+    <row r="11" spans="2:12" ht="14" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="B11" s="2"/>
+    </row>
+    <row r="12" spans="2:12" x14ac:dyDescent="0.35">
+      <c r="B12" s="6" t="s">
         <v>32</v>
       </c>
-      <c r="D12">
+      <c r="E12">
         <f>'Data Sheet'!D53</f>
         <v>47.48</v>
       </c>
-      <c r="E12">
+      <c r="F12">
         <f>'Data Sheet'!E53</f>
         <v>81.010000000000005</v>
       </c>
-      <c r="F12">
+      <c r="G12">
         <f>'Data Sheet'!F53</f>
         <v>841.1</v>
       </c>
-      <c r="G12">
+      <c r="H12">
         <f>'Data Sheet'!G53</f>
         <v>593.5</v>
       </c>
-      <c r="H12">
+      <c r="I12">
         <f>'Data Sheet'!H53</f>
         <v>491.3</v>
       </c>
-      <c r="I12">
+      <c r="J12">
         <f>'Data Sheet'!I53</f>
         <v>913.9</v>
       </c>
-      <c r="J12">
+      <c r="K12">
         <f>'Data Sheet'!J53</f>
         <v>1208.8</v>
       </c>
-      <c r="K12">
+      <c r="L12">
         <f>'Data Sheet'!K53</f>
         <v>1250.9000000000001</v>
       </c>
     </row>
-    <row r="13" spans="1:11" x14ac:dyDescent="0.35">
-      <c r="A13" s="6" t="s">
+    <row r="13" spans="2:12" x14ac:dyDescent="0.35">
+      <c r="B13" s="6" t="s">
         <v>33</v>
       </c>
-      <c r="D13">
+      <c r="E13">
         <f>'Data Sheet'!D54</f>
         <v>11.04</v>
       </c>
-      <c r="E13">
+      <c r="F13">
         <f>'Data Sheet'!E54</f>
         <v>58.81</v>
       </c>
-      <c r="F13">
+      <c r="G13">
         <f>'Data Sheet'!F54</f>
         <v>55.6</v>
       </c>
-      <c r="G13">
+      <c r="H13">
         <f>'Data Sheet'!G54</f>
         <v>14.7</v>
       </c>
-      <c r="H13">
+      <c r="I13">
         <f>'Data Sheet'!H54</f>
         <v>23.6</v>
       </c>
-      <c r="I13">
+      <c r="J13">
         <f>'Data Sheet'!I54</f>
         <v>12</v>
       </c>
-      <c r="J13">
+      <c r="K13">
         <f>'Data Sheet'!J54</f>
         <v>11.4</v>
       </c>
-      <c r="K13">
+      <c r="L13">
         <f>'Data Sheet'!K54</f>
         <v>10</v>
       </c>
     </row>
-    <row r="14" spans="1:11" x14ac:dyDescent="0.35">
-      <c r="A14" s="6" t="s">
+    <row r="14" spans="2:12" x14ac:dyDescent="0.35">
+      <c r="B14" s="6" t="s">
         <v>34</v>
       </c>
-      <c r="D14">
+      <c r="E14">
         <f>'Data Sheet'!D55</f>
         <v>112.12</v>
       </c>
-      <c r="E14">
+      <c r="F14">
         <f>'Data Sheet'!E55</f>
         <v>2308.37</v>
       </c>
-      <c r="F14">
+      <c r="G14">
         <f>'Data Sheet'!F55</f>
         <v>2849.2</v>
       </c>
-      <c r="G14">
+      <c r="H14">
         <f>'Data Sheet'!G55</f>
         <v>3740</v>
       </c>
-      <c r="H14">
+      <c r="I14">
         <f>'Data Sheet'!H55</f>
         <v>413</v>
       </c>
-      <c r="I14">
+      <c r="J14">
         <f>'Data Sheet'!I55</f>
         <v>1229.5</v>
       </c>
-      <c r="J14">
+      <c r="K14">
         <f>'Data Sheet'!J55</f>
         <v>2697.1</v>
       </c>
-      <c r="K14">
+      <c r="L14">
         <f>'Data Sheet'!K55</f>
         <v>4628.3</v>
       </c>
     </row>
-    <row r="15" spans="1:11" x14ac:dyDescent="0.35">
-      <c r="A15" s="6" t="s">
+    <row r="15" spans="2:12" x14ac:dyDescent="0.35">
+      <c r="B15" s="6" t="s">
         <v>35</v>
       </c>
-      <c r="D15">
+      <c r="E15">
         <f>'Data Sheet'!D56</f>
         <v>530.29</v>
       </c>
-      <c r="E15">
+      <c r="F15">
         <f>'Data Sheet'!E56</f>
         <v>1001.87</v>
       </c>
-      <c r="F15">
+      <c r="G15">
         <f>'Data Sheet'!F56</f>
         <v>5017.8999999999996</v>
       </c>
-      <c r="G15">
+      <c r="H15">
         <f>'Data Sheet'!G56</f>
         <v>5953.8</v>
       </c>
-      <c r="H15">
+      <c r="I15">
         <f>'Data Sheet'!H56</f>
         <v>8222.7999999999993</v>
       </c>
-      <c r="I15">
+      <c r="J15">
         <f>'Data Sheet'!I56</f>
         <v>15836</v>
       </c>
-      <c r="J15">
+      <c r="K15">
         <f>'Data Sheet'!J56</f>
         <v>14048.5</v>
       </c>
-      <c r="K15">
+      <c r="L15">
         <f>'Data Sheet'!K56</f>
         <v>11249.9</v>
       </c>
     </row>
-    <row r="16" spans="1:11" x14ac:dyDescent="0.35">
-      <c r="A16" s="2" t="s">
+    <row r="16" spans="2:12" x14ac:dyDescent="0.35">
+      <c r="B16" s="2" t="s">
         <v>31</v>
       </c>
-      <c r="D16">
+      <c r="E16">
         <f>'Data Sheet'!D57</f>
         <v>700.93</v>
       </c>
-      <c r="E16">
+      <c r="F16">
         <f>'Data Sheet'!E57</f>
         <v>3450.06</v>
       </c>
-      <c r="F16">
+      <c r="G16">
         <f>'Data Sheet'!F57</f>
         <v>8763.7999999999993</v>
       </c>
-      <c r="G16">
+      <c r="H16">
         <f>'Data Sheet'!G57</f>
         <v>10302</v>
       </c>
-      <c r="H16">
+      <c r="I16">
         <f>'Data Sheet'!H57</f>
         <v>9150.7000000000007</v>
       </c>
-      <c r="I16">
+      <c r="J16">
         <f>'Data Sheet'!I57</f>
         <v>17991.400000000001</v>
       </c>
-      <c r="J16">
+      <c r="K16">
         <f>'Data Sheet'!J57</f>
         <v>17965.8</v>
       </c>
-      <c r="K16">
+      <c r="L16">
         <f>'Data Sheet'!K57</f>
         <v>17139.099999999999</v>
       </c>
     </row>
-    <row r="17" spans="1:11" x14ac:dyDescent="0.35">
-      <c r="A17" s="2"/>
-    </row>
-    <row r="19" spans="1:11" x14ac:dyDescent="0.35">
-      <c r="A19" t="s">
+    <row r="17" spans="2:12" x14ac:dyDescent="0.35">
+      <c r="B17" s="2"/>
+    </row>
+    <row r="19" spans="2:12" x14ac:dyDescent="0.35">
+      <c r="B19" t="s">
         <v>69</v>
       </c>
-      <c r="D19">
-        <f>D15-D9</f>
+      <c r="E19">
+        <f>E15-E9</f>
         <v>213.91999999999996</v>
       </c>
-      <c r="E19">
-        <f t="shared" ref="E19:K19" si="0">E15-E9</f>
+      <c r="F19">
+        <f t="shared" ref="F19:L19" si="0">F15-F9</f>
         <v>364.40999999999997</v>
       </c>
-      <c r="F19">
+      <c r="G19">
         <f t="shared" si="0"/>
         <v>2911.2999999999997</v>
       </c>
-      <c r="G19">
+      <c r="H19">
         <f t="shared" si="0"/>
         <v>4185.1000000000004</v>
       </c>
-      <c r="H19">
+      <c r="I19">
         <f t="shared" si="0"/>
         <v>6218.9</v>
       </c>
-      <c r="I19">
+      <c r="J19">
         <f t="shared" si="0"/>
         <v>12217.7</v>
       </c>
-      <c r="J19">
+      <c r="K19">
         <f t="shared" si="0"/>
         <v>9321.6</v>
       </c>
-      <c r="K19">
+      <c r="L19">
         <f t="shared" si="0"/>
         <v>7614</v>
       </c>
     </row>
-    <row r="20" spans="1:11" x14ac:dyDescent="0.35">
-      <c r="A20" s="6" t="s">
+    <row r="20" spans="2:12" x14ac:dyDescent="0.35">
+      <c r="B20" s="6" t="s">
         <v>70</v>
       </c>
-      <c r="D20">
+      <c r="E20">
         <f>'Data Sheet'!D58</f>
         <v>88.87</v>
       </c>
-      <c r="E20">
+      <c r="F20">
         <f>'Data Sheet'!E58</f>
         <v>125.05</v>
       </c>
-      <c r="F20">
+      <c r="G20">
         <f>'Data Sheet'!F58</f>
         <v>258.39999999999998</v>
       </c>
-      <c r="G20">
+      <c r="H20">
         <f>'Data Sheet'!G58</f>
         <v>301</v>
       </c>
-      <c r="H20">
+      <c r="I20">
         <f>'Data Sheet'!H58</f>
         <v>471.3</v>
       </c>
-      <c r="I20">
+      <c r="J20">
         <f>'Data Sheet'!I58</f>
         <v>746.4</v>
       </c>
-      <c r="J20">
+      <c r="K20">
         <f>'Data Sheet'!J58</f>
         <v>1252.8</v>
       </c>
-      <c r="K20">
+      <c r="L20">
         <f>'Data Sheet'!K58</f>
         <v>1650.7</v>
       </c>
     </row>
-    <row r="21" spans="1:11" x14ac:dyDescent="0.35">
-      <c r="A21" s="6" t="s">
+    <row r="21" spans="2:12" x14ac:dyDescent="0.35">
+      <c r="B21" s="6" t="s">
         <v>37</v>
       </c>
-      <c r="D21" s="12">
+      <c r="E21" s="12">
         <f>'Data Sheet'!D59</f>
         <v>0</v>
       </c>
-      <c r="E21" s="12">
+      <c r="F21" s="12">
         <f>'Data Sheet'!E59</f>
         <v>0</v>
       </c>
-      <c r="F21" s="12">
+      <c r="G21" s="12">
         <f>'Data Sheet'!F59</f>
         <v>0</v>
       </c>
-      <c r="G21" s="12">
+      <c r="H21" s="12">
         <f>'Data Sheet'!G59</f>
         <v>0</v>
       </c>
-      <c r="H21" s="12">
+      <c r="I21" s="12">
         <f>'Data Sheet'!H59</f>
         <v>0</v>
       </c>
-      <c r="I21" s="12">
+      <c r="J21" s="12">
         <f>'Data Sheet'!I59</f>
         <v>0</v>
       </c>
-      <c r="J21" s="12">
+      <c r="K21" s="12">
         <f>'Data Sheet'!J59</f>
         <v>0</v>
       </c>
-      <c r="K21" s="12">
+      <c r="L21" s="12">
         <f>'Data Sheet'!K59</f>
         <v>0</v>
       </c>
     </row>
-    <row r="22" spans="1:11" x14ac:dyDescent="0.35">
-      <c r="A22" t="s">
+    <row r="22" spans="2:12" x14ac:dyDescent="0.35">
+      <c r="B22" t="s">
         <v>71</v>
       </c>
-      <c r="D22" s="11"/>
       <c r="E22" s="11"/>
-      <c r="F22" s="11">
-        <f>IF('Income Statement'!B5&gt;0,('Balance sheet'!F20/('Income Statement'!B5/365)),0)</f>
+      <c r="F22" s="11"/>
+      <c r="G22" s="11">
+        <f>IF('Income Statement'!C13&gt;0,('Balance sheet'!G20/('Income Statement'!C13/365)),0)</f>
         <v>29.253435067150519</v>
       </c>
-      <c r="G22" s="11">
-        <f>IF('Income Statement'!C5&gt;0,('Balance sheet'!G20/('Income Statement'!C5/365)),0)</f>
+      <c r="H22" s="11">
+        <f>IF('Income Statement'!D13&gt;0,('Balance sheet'!H20/('Income Statement'!D13/365)),0)</f>
         <v>33.508707719522981</v>
       </c>
-      <c r="H22" s="11">
-        <f>IF('Income Statement'!D5&gt;0,('Balance sheet'!H20/('Income Statement'!D5/365)),0)</f>
+      <c r="I22" s="11">
+        <f>IF('Income Statement'!E13&gt;0,('Balance sheet'!I20/('Income Statement'!E13/365)),0)</f>
         <v>61.408810195266483</v>
       </c>
-      <c r="I22" s="11">
-        <f>IF('Income Statement'!E5&gt;0,('Balance sheet'!I20/('Income Statement'!E5/365)),0)</f>
+      <c r="J22" s="11">
+        <f>IF('Income Statement'!F13&gt;0,('Balance sheet'!J20/('Income Statement'!F13/365)),0)</f>
         <v>54.769812231112546</v>
       </c>
-      <c r="J22" s="11">
-        <f>IF('Income Statement'!F5&gt;0,('Balance sheet'!J20/('Income Statement'!F5/365)),0)</f>
+      <c r="K22" s="11">
+        <f>IF('Income Statement'!G13&gt;0,('Balance sheet'!K20/('Income Statement'!G13/365)),0)</f>
         <v>57.228389422174381</v>
       </c>
-      <c r="K22" s="11">
-        <f>IF('Income Statement'!G5&gt;0,('Balance sheet'!K20/('Income Statement'!G5/365)),0)</f>
+      <c r="L22" s="11">
+        <f>IF('Income Statement'!H13&gt;0,('Balance sheet'!L20/('Income Statement'!H13/365)),0)</f>
         <v>60.384603820481473</v>
       </c>
     </row>
-    <row r="25" spans="1:11" x14ac:dyDescent="0.35">
-      <c r="A25" s="10" t="s">
+    <row r="25" spans="2:12" x14ac:dyDescent="0.35">
+      <c r="B25" s="10" t="s">
         <v>72</v>
       </c>
-      <c r="F25" s="18">
-        <f>IF(SUM(F6:F7)&gt;0,'Income Statement'!B14/(SUM('Balance sheet'!F6:F7)),"")</f>
+      <c r="G25" s="18">
+        <f>IF(SUM(G6:G7)&gt;0,'Income Statement'!C22/(SUM('Balance sheet'!G6:G7)),"")</f>
         <v>-0.73042323883386617</v>
       </c>
-      <c r="G25" s="18">
-        <f>IF(SUM(G6:G7)&gt;0,'Income Statement'!C14/(SUM('Balance sheet'!G6:G7)),"")</f>
+      <c r="H25" s="18">
+        <f>IF(SUM(H6:H7)&gt;0,'Income Statement'!D22/(SUM('Balance sheet'!H6:H7)),"")</f>
         <v>-0.35066377140601096</v>
       </c>
-      <c r="H25" s="18">
-        <f>IF(SUM(H6:H7)&gt;0,'Income Statement'!D14/(SUM('Balance sheet'!H6:H7)),"")</f>
+      <c r="I25" s="18">
+        <f>IF(SUM(I6:I7)&gt;0,'Income Statement'!E22/(SUM('Balance sheet'!I6:I7)),"")</f>
         <v>-0.25954887678276301</v>
       </c>
-      <c r="I25" s="18">
-        <f>IF(SUM(I6:I7)&gt;0,'Income Statement'!E14/(SUM('Balance sheet'!I6:I7)),"")</f>
+      <c r="J25" s="18">
+        <f>IF(SUM(J6:J7)&gt;0,'Income Statement'!F22/(SUM('Balance sheet'!J6:J7)),"")</f>
         <v>-0.16909042087113824</v>
       </c>
-      <c r="J25" s="18">
-        <f>IF(SUM(J6:J7)&gt;0,'Income Statement'!F14/(SUM('Balance sheet'!J6:J7)),"")</f>
+      <c r="K25" s="18">
+        <f>IF(SUM(K6:K7)&gt;0,'Income Statement'!G22/(SUM('Balance sheet'!K6:K7)),"")</f>
         <v>-0.13644395955622485</v>
       </c>
-      <c r="K25" s="18">
-        <f>IF(SUM(K6:K7)&gt;0,'Income Statement'!G14/(SUM('Balance sheet'!K6:K7)),"")</f>
+      <c r="L25" s="18">
+        <f>IF(SUM(L6:L7)&gt;0,'Income Statement'!H22/(SUM('Balance sheet'!L6:L7)),"")</f>
         <v>-0.10632869599147569</v>
       </c>
     </row>
-    <row r="26" spans="1:11" x14ac:dyDescent="0.35">
-      <c r="A26" s="10" t="s">
+    <row r="26" spans="2:12" x14ac:dyDescent="0.35">
+      <c r="B26" s="10" t="s">
         <v>73</v>
       </c>
-      <c r="F26" s="18">
-        <f>IF((E6+E7+E8+F6+F7+F8)&gt;0,('Income Statement'!B12+'Income Statement'!B11)*2/(E6+E7+E8+F6+F7+F8),"")</f>
+      <c r="G26" s="18">
+        <f>IF((F6+F7+F8+G6+G7+G8)&gt;0,('Income Statement'!C20+'Income Statement'!C19)*2/(F6+F7+F8+G6+G7+G8),"")</f>
         <v>-0.88694587002893399</v>
       </c>
-      <c r="G26" s="18">
-        <f>IF((F6+F7+F8+G6+G7+G8)&gt;0,('Income Statement'!C12+'Income Statement'!C11)*2/(F6+F7+F8+G6+G7+G8),"")</f>
+      <c r="H26" s="18">
+        <f>IF((G6+G7+G8+H6+H7+H8)&gt;0,('Income Statement'!D20+'Income Statement'!D19)*2/(G6+G7+G8+H6+H7+H8),"")</f>
         <v>-0.38242322504196702</v>
       </c>
-      <c r="H26" s="18">
-        <f>IF((G6+G7+G8+H6+H7+H8)&gt;0,('Income Statement'!D12+'Income Statement'!D11)*2/(G6+G7+G8+H6+H7+H8),"")</f>
+      <c r="I26" s="18">
+        <f>IF((H6+H7+H8+I6+I7+I8)&gt;0,('Income Statement'!E20+'Income Statement'!E19)*2/(H6+H7+H8+I6+I7+I8),"")</f>
         <v>-0.21179711864082501</v>
       </c>
-      <c r="I26" s="18">
-        <f>IF((H6+H7+H8+I6+I7+I8)&gt;0,('Income Statement'!E12+'Income Statement'!E11)*2/(H6+H7+H8+I6+I7+I8),"")</f>
+      <c r="J26" s="18">
+        <f>IF((I6+I7+I8+J6+J7+J8)&gt;0,('Income Statement'!F20+'Income Statement'!F19)*2/(I6+I7+I8+J6+J7+J8),"")</f>
         <v>-0.21777052867346033</v>
       </c>
-      <c r="J26" s="18">
-        <f>IF((I6+I7+I8+J6+J7+J8)&gt;0,('Income Statement'!F12+'Income Statement'!F11)*2/(I6+I7+I8+J6+J7+J8),"")</f>
+      <c r="K26" s="18">
+        <f>IF((J6+J7+J8+K6+K7+K8)&gt;0,('Income Statement'!G20+'Income Statement'!G19)*2/(J6+J7+J8+K6+K7+K8),"")</f>
         <v>-0.12453281182094743</v>
       </c>
-      <c r="K26" s="18">
-        <f>IF((J6+J7+J8+K6+K7+K8)&gt;0,('Income Statement'!G12+'Income Statement'!G11)*2/(J6+J7+J8+K6+K7+K8),"")</f>
+      <c r="L26" s="18">
+        <f>IF((K6+K7+K8+L6+L7+L8)&gt;0,('Income Statement'!H20+'Income Statement'!H19)*2/(K6+K7+K8+L6+L7+L8),"")</f>
         <v>-0.1021684908814192</v>
       </c>
     </row>
-    <row r="30" spans="1:11" x14ac:dyDescent="0.35">
-      <c r="A30" s="6"/>
-    </row>
-    <row r="31" spans="1:11" x14ac:dyDescent="0.35">
-      <c r="A31" s="1"/>
-    </row>
-    <row r="32" spans="1:11" x14ac:dyDescent="0.35">
-      <c r="A32" s="1"/>
-    </row>
-    <row r="33" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A33" s="1"/>
-    </row>
-    <row r="34" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A34" s="1"/>
+    <row r="30" spans="2:12" x14ac:dyDescent="0.35">
+      <c r="B30" s="6"/>
+    </row>
+    <row r="31" spans="2:12" x14ac:dyDescent="0.35">
+      <c r="B31" s="1"/>
+    </row>
+    <row r="32" spans="2:12" x14ac:dyDescent="0.35">
+      <c r="B32" s="1"/>
+    </row>
+    <row r="33" spans="2:2" x14ac:dyDescent="0.35">
+      <c r="B33" s="1"/>
+    </row>
+    <row r="34" spans="2:2" x14ac:dyDescent="0.35">
+      <c r="B34" s="1"/>
     </row>
   </sheetData>
   <mergeCells count="1">
-    <mergeCell ref="A1:D1"/>
+    <mergeCell ref="B1:E2"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -5573,214 +5558,221 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5383C37A-B6F2-4288-8B27-B7F7E4517152}">
-  <dimension ref="A1:K9"/>
+  <dimension ref="B1:L9"/>
   <sheetViews>
     <sheetView showGridLines="0" workbookViewId="0">
-      <selection activeCell="C15" sqref="C15"/>
+      <selection activeCell="B1" sqref="B1:E2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="25.81640625" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="2.26953125" customWidth="1"/>
+    <col min="2" max="2" width="25.81640625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:11" x14ac:dyDescent="0.35">
-      <c r="A1" s="27" t="s">
+    <row r="1" spans="2:12" x14ac:dyDescent="0.35">
+      <c r="B1" s="36" t="s">
         <v>5</v>
       </c>
-      <c r="B1" s="27"/>
-      <c r="C1" s="27"/>
-      <c r="D1" s="27"/>
-    </row>
-    <row r="4" spans="1:11" x14ac:dyDescent="0.35">
-      <c r="A4" s="2" t="s">
+      <c r="C1" s="36"/>
+      <c r="D1" s="36"/>
+      <c r="E1" s="36"/>
+    </row>
+    <row r="2" spans="2:12" x14ac:dyDescent="0.35">
+      <c r="B2" s="36"/>
+      <c r="C2" s="36"/>
+      <c r="D2" s="36"/>
+      <c r="E2" s="36"/>
+    </row>
+    <row r="4" spans="2:12" x14ac:dyDescent="0.35">
+      <c r="B4" s="2" t="s">
         <v>42</v>
       </c>
     </row>
-    <row r="5" spans="1:11" x14ac:dyDescent="0.35">
-      <c r="A5" s="4" t="s">
+    <row r="5" spans="2:12" x14ac:dyDescent="0.35">
+      <c r="B5" s="4" t="s">
         <v>7</v>
       </c>
-      <c r="B5" s="5"/>
       <c r="C5" s="5"/>
-      <c r="D5" s="5">
+      <c r="D5" s="5"/>
+      <c r="E5" s="5">
         <v>42094</v>
       </c>
-      <c r="E5" s="5">
+      <c r="F5" s="5">
         <v>42460</v>
       </c>
-      <c r="F5" s="5">
+      <c r="G5" s="5">
         <v>43555</v>
       </c>
-      <c r="G5" s="5">
+      <c r="H5" s="5">
         <v>43921</v>
       </c>
-      <c r="H5" s="5">
+      <c r="I5" s="5">
         <v>44286</v>
       </c>
-      <c r="I5" s="5">
+      <c r="J5" s="5">
         <v>44651</v>
       </c>
-      <c r="J5" s="5">
+      <c r="K5" s="5">
         <v>45016</v>
       </c>
-      <c r="K5" s="5">
+      <c r="L5" s="5">
         <v>45382</v>
       </c>
     </row>
-    <row r="6" spans="1:11" x14ac:dyDescent="0.35">
-      <c r="A6" s="6" t="s">
+    <row r="6" spans="2:12" x14ac:dyDescent="0.35">
+      <c r="B6" s="6" t="s">
         <v>43</v>
       </c>
-      <c r="D6">
+      <c r="E6">
         <f>'Data Sheet'!D73</f>
         <v>-333.97</v>
       </c>
-      <c r="E6">
+      <c r="F6">
         <f>'Data Sheet'!E73</f>
         <v>-1404.96</v>
       </c>
-      <c r="F6">
+      <c r="G6">
         <f>'Data Sheet'!F73</f>
         <v>-4475.8999999999996</v>
       </c>
-      <c r="G6">
+      <c r="H6">
         <f>'Data Sheet'!G73</f>
         <v>-2376.6</v>
       </c>
-      <c r="H6">
+      <c r="I6">
         <f>'Data Sheet'!H73</f>
         <v>-2082.5</v>
       </c>
-      <c r="I6">
+      <c r="J6">
         <f>'Data Sheet'!I73</f>
         <v>-1236.3</v>
       </c>
-      <c r="J6">
+      <c r="K6">
         <f>'Data Sheet'!J73</f>
         <v>415.6</v>
       </c>
-      <c r="K6">
+      <c r="L6">
         <f>'Data Sheet'!K73</f>
         <v>650.79999999999995</v>
       </c>
     </row>
-    <row r="7" spans="1:11" x14ac:dyDescent="0.35">
-      <c r="A7" s="6" t="s">
+    <row r="7" spans="2:12" x14ac:dyDescent="0.35">
+      <c r="B7" s="6" t="s">
         <v>44</v>
       </c>
-      <c r="D7">
+      <c r="E7">
         <f>'Data Sheet'!D74</f>
         <v>-20.45</v>
       </c>
-      <c r="E7">
+      <c r="F7">
         <f>'Data Sheet'!E74</f>
         <v>-2229.0500000000002</v>
       </c>
-      <c r="F7">
+      <c r="G7">
         <f>'Data Sheet'!F74</f>
         <v>1905.6</v>
       </c>
-      <c r="G7">
+      <c r="H7">
         <f>'Data Sheet'!G74</f>
         <v>-1997</v>
       </c>
-      <c r="H7">
+      <c r="I7">
         <f>'Data Sheet'!H74</f>
         <v>1933.8</v>
       </c>
-      <c r="I7">
+      <c r="J7">
         <f>'Data Sheet'!I74</f>
         <v>-5483.7</v>
       </c>
-      <c r="J7">
+      <c r="K7">
         <f>'Data Sheet'!J74</f>
         <v>2627.8</v>
       </c>
-      <c r="K7">
+      <c r="L7">
         <f>'Data Sheet'!K74</f>
         <v>318</v>
       </c>
     </row>
-    <row r="8" spans="1:11" x14ac:dyDescent="0.35">
-      <c r="A8" s="6" t="s">
+    <row r="8" spans="2:12" x14ac:dyDescent="0.35">
+      <c r="B8" s="6" t="s">
         <v>45</v>
       </c>
-      <c r="D8">
+      <c r="E8">
         <f>'Data Sheet'!D75</f>
         <v>458.9</v>
       </c>
-      <c r="E8">
+      <c r="F8">
         <f>'Data Sheet'!E75</f>
         <v>3937.97</v>
       </c>
-      <c r="F8">
+      <c r="G8">
         <f>'Data Sheet'!F75</f>
         <v>2110.5</v>
       </c>
-      <c r="G8">
+      <c r="H8">
         <f>'Data Sheet'!G75</f>
         <v>5159.8999999999996</v>
       </c>
-      <c r="H8">
+      <c r="I8">
         <f>'Data Sheet'!H75</f>
         <v>-222.1</v>
       </c>
-      <c r="I8">
+      <c r="J8">
         <f>'Data Sheet'!I75</f>
         <v>8053.5</v>
       </c>
-      <c r="J8">
+      <c r="K8">
         <f>'Data Sheet'!J75</f>
         <v>-1112.3</v>
       </c>
-      <c r="K8">
+      <c r="L8">
         <f>'Data Sheet'!K75</f>
         <v>-22.1</v>
       </c>
     </row>
-    <row r="9" spans="1:11" x14ac:dyDescent="0.35">
-      <c r="A9" s="2" t="s">
+    <row r="9" spans="2:12" x14ac:dyDescent="0.35">
+      <c r="B9" s="2" t="s">
         <v>46</v>
       </c>
-      <c r="B9" s="10"/>
       <c r="C9" s="10"/>
-      <c r="D9" s="10">
+      <c r="D9" s="10"/>
+      <c r="E9" s="10">
         <f>'Data Sheet'!D76</f>
         <v>104.48</v>
       </c>
-      <c r="E9" s="10">
+      <c r="F9" s="10">
         <f>'Data Sheet'!E76</f>
         <v>303.95999999999998</v>
       </c>
-      <c r="F9" s="10">
+      <c r="G9" s="10">
         <f>'Data Sheet'!F76</f>
         <v>-459.8</v>
       </c>
-      <c r="G9" s="10">
+      <c r="H9" s="10">
         <f>'Data Sheet'!G76</f>
         <v>786.3</v>
       </c>
-      <c r="H9" s="10">
+      <c r="I9" s="10">
         <f>'Data Sheet'!H76</f>
         <v>-370.8</v>
       </c>
-      <c r="I9" s="10">
+      <c r="J9" s="10">
         <f>'Data Sheet'!I76</f>
         <v>1333.5</v>
       </c>
-      <c r="J9" s="10">
+      <c r="K9" s="10">
         <f>'Data Sheet'!J76</f>
         <v>1931.1</v>
       </c>
-      <c r="K9" s="10">
+      <c r="L9" s="10">
         <f>'Data Sheet'!K76</f>
         <v>946.7</v>
       </c>
     </row>
   </sheetData>
   <mergeCells count="1">
-    <mergeCell ref="A1:D1"/>
+    <mergeCell ref="B1:E2"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -5788,190 +5780,197 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3C4566DA-435F-4CF7-9B07-00647AC4DBFA}">
-  <dimension ref="A1:E13"/>
+  <dimension ref="B1:F13"/>
   <sheetViews>
     <sheetView showGridLines="0" workbookViewId="0">
-      <selection activeCell="D17" sqref="D17"/>
+      <selection activeCell="I7" sqref="I7:I8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="17.54296875" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="2.1796875" customWidth="1"/>
+    <col min="2" max="2" width="17.54296875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A1" s="27" t="s">
+    <row r="1" spans="2:6" x14ac:dyDescent="0.35">
+      <c r="B1" s="36" t="s">
         <v>5</v>
       </c>
-      <c r="B1" s="27"/>
-      <c r="C1" s="27"/>
-      <c r="D1" s="27"/>
-    </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A4" s="5" t="s">
+      <c r="C1" s="36"/>
+      <c r="D1" s="36"/>
+      <c r="E1" s="36"/>
+    </row>
+    <row r="2" spans="2:6" x14ac:dyDescent="0.35">
+      <c r="B2" s="36"/>
+      <c r="C2" s="36"/>
+      <c r="D2" s="36"/>
+      <c r="E2" s="36"/>
+    </row>
+    <row r="4" spans="2:6" x14ac:dyDescent="0.35">
+      <c r="B4" s="5" t="s">
         <v>75</v>
       </c>
-      <c r="B4" s="5">
+      <c r="C4" s="5">
         <v>44256</v>
       </c>
-      <c r="C4" s="5">
+      <c r="D4" s="5">
         <v>44621</v>
       </c>
-      <c r="D4" s="5">
+      <c r="E4" s="5">
         <v>44986</v>
       </c>
-      <c r="E4" s="5">
+      <c r="F4" s="5">
         <v>45352</v>
       </c>
     </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A5" s="10" t="s">
+    <row r="5" spans="2:6" x14ac:dyDescent="0.35">
+      <c r="B5" s="10" t="s">
         <v>74</v>
       </c>
-      <c r="B5" s="15">
+      <c r="C5" s="15">
         <f>('Data Sheet'!H13-'Data Sheet'!H17+'Data Sheet'!H19)/'Data Sheet'!H13</f>
         <v>0.49601970513690075</v>
       </c>
-      <c r="C5" s="15">
+      <c r="D5" s="15">
         <f>('Data Sheet'!I13-'Data Sheet'!I17+'Data Sheet'!I19)/'Data Sheet'!I13</f>
         <v>0.59953359334164291</v>
       </c>
-      <c r="D5" s="15">
+      <c r="E5" s="15">
         <f>('Data Sheet'!J13-'Data Sheet'!J17+'Data Sheet'!J19)/'Data Sheet'!J13</f>
         <v>0.75858228101573155</v>
       </c>
-      <c r="E5" s="15">
+      <c r="F5" s="15">
         <f>('Data Sheet'!K13-'Data Sheet'!K17+'Data Sheet'!K19)/'Data Sheet'!K13</f>
         <v>0.69151516366333254</v>
       </c>
     </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A6" s="10" t="s">
+    <row r="6" spans="2:6" x14ac:dyDescent="0.35">
+      <c r="B6" s="10" t="s">
         <v>76</v>
       </c>
-      <c r="B6" s="15">
-        <f>'Income Statement'!D8/'Income Statement'!D5</f>
+      <c r="C6" s="15">
+        <f>'Income Statement'!E16/'Income Statement'!E13</f>
         <v>-0.65623103559061868</v>
       </c>
-      <c r="C6" s="15">
-        <f>'Income Statement'!E8/'Income Statement'!E5</f>
+      <c r="D6" s="15">
+        <f>'Income Statement'!F16/'Income Statement'!F13</f>
         <v>-0.47919263399139589</v>
       </c>
-      <c r="D6" s="15">
-        <f>'Income Statement'!F8/'Income Statement'!F5</f>
+      <c r="E6" s="15">
+        <f>'Income Statement'!G16/'Income Statement'!G13</f>
         <v>-0.20571192570992325</v>
       </c>
-      <c r="E6" s="15">
-        <f>'Income Statement'!G8/'Income Statement'!G5</f>
+      <c r="F6" s="15">
+        <f>'Income Statement'!H16/'Income Statement'!H13</f>
         <v>-0.51831064964220597</v>
       </c>
     </row>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A7" s="10" t="s">
+    <row r="7" spans="2:6" x14ac:dyDescent="0.35">
+      <c r="B7" s="10" t="s">
         <v>77</v>
       </c>
-      <c r="B7" s="15">
-        <f>'Income Statement'!D14/'Income Statement'!D5</f>
+      <c r="C7" s="15">
+        <f>'Income Statement'!E22/'Income Statement'!E13</f>
         <v>-0.60546888944418653</v>
       </c>
-      <c r="C7" s="15">
-        <f>'Income Statement'!E14/'Income Statement'!E5</f>
+      <c r="D7" s="15">
+        <f>'Income Statement'!F22/'Income Statement'!F13</f>
         <v>-0.48106228137187895</v>
       </c>
-      <c r="D7" s="15">
-        <f>'Income Statement'!F14/'Income Statement'!F5</f>
+      <c r="E7" s="15">
+        <f>'Income Statement'!G22/'Income Statement'!G13</f>
         <v>-0.22225698659624796</v>
       </c>
-      <c r="E7" s="15">
-        <f>'Income Statement'!G14/'Income Statement'!G5</f>
+      <c r="F7" s="15">
+        <f>'Income Statement'!H22/'Income Statement'!H13</f>
         <v>-0.14201527390807595</v>
       </c>
     </row>
-    <row r="8" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A8" s="10"/>
-    </row>
-    <row r="9" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A9" s="5" t="s">
+    <row r="8" spans="2:6" x14ac:dyDescent="0.35">
+      <c r="B8" s="10"/>
+    </row>
+    <row r="9" spans="2:6" x14ac:dyDescent="0.35">
+      <c r="B9" s="5" t="s">
         <v>78</v>
       </c>
-      <c r="B9" s="5">
+      <c r="C9" s="5">
         <v>44256</v>
       </c>
-      <c r="C9" s="5">
+      <c r="D9" s="5">
         <v>44621</v>
       </c>
-      <c r="D9" s="5">
+      <c r="E9" s="5">
         <v>44986</v>
       </c>
-      <c r="E9" s="5">
+      <c r="F9" s="5">
         <v>45352</v>
       </c>
     </row>
-    <row r="10" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A10" s="10" t="s">
+    <row r="10" spans="2:6" x14ac:dyDescent="0.35">
+      <c r="B10" s="10" t="s">
         <v>79</v>
       </c>
-      <c r="B10" s="11">
+      <c r="C10" s="11">
         <f>('Data Sheet'!H50+'Data Sheet'!H51)/('Data Sheet'!H55+'Data Sheet'!H56)</f>
         <v>0.30291345329905744</v>
       </c>
-      <c r="C10" s="11">
+      <c r="D10" s="11">
         <f>('Data Sheet'!I50+'Data Sheet'!I51)/('Data Sheet'!I55+'Data Sheet'!I56)</f>
         <v>0.22500366235973163</v>
       </c>
-      <c r="D10" s="11">
+      <c r="E10" s="11">
         <f>('Data Sheet'!J50+'Data Sheet'!J51)/('Data Sheet'!J55+'Data Sheet'!J56)</f>
         <v>0.29561198165488251</v>
       </c>
-      <c r="E10" s="11">
+      <c r="F10" s="11">
         <f>('Data Sheet'!K50+'Data Sheet'!K51)/('Data Sheet'!K55+'Data Sheet'!K56)</f>
         <v>0.24010908037434972</v>
       </c>
     </row>
-    <row r="11" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A11" s="10"/>
-    </row>
-    <row r="12" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A12" s="5" t="s">
+    <row r="11" spans="2:6" x14ac:dyDescent="0.35">
+      <c r="B11" s="10"/>
+    </row>
+    <row r="12" spans="2:6" x14ac:dyDescent="0.35">
+      <c r="B12" s="5" t="s">
         <v>80</v>
       </c>
-      <c r="B12" s="5">
+      <c r="C12" s="5">
         <v>44256</v>
       </c>
-      <c r="C12" s="5">
+      <c r="D12" s="5">
         <v>44621</v>
       </c>
-      <c r="D12" s="5">
+      <c r="E12" s="5">
         <v>44986</v>
       </c>
-      <c r="E12" s="5">
+      <c r="F12" s="5">
         <v>45352</v>
       </c>
     </row>
-    <row r="13" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A13" s="10" t="s">
+    <row r="13" spans="2:6" x14ac:dyDescent="0.35">
+      <c r="B13" s="10" t="s">
         <v>81</v>
       </c>
-      <c r="B13" s="11">
+      <c r="C13" s="11">
         <f>'Data Sheet'!H13/('Data Sheet'!H55+'Data Sheet'!H56)</f>
         <v>0.32438222283980644</v>
       </c>
-      <c r="C13" s="11">
+      <c r="D13" s="11">
         <f>'Data Sheet'!I13/('Data Sheet'!I55+'Data Sheet'!I56)</f>
         <v>0.2914769564325686</v>
       </c>
-      <c r="D13" s="11">
+      <c r="E13" s="11">
         <f>'Data Sheet'!J13/('Data Sheet'!J55+'Data Sheet'!J56)</f>
         <v>0.47715817886489592</v>
       </c>
-      <c r="E13" s="11">
+      <c r="F13" s="11">
         <f>'Data Sheet'!K13/('Data Sheet'!K55+'Data Sheet'!K56)</f>
         <v>0.62839616581224567</v>
       </c>
     </row>
   </sheetData>
   <mergeCells count="1">
-    <mergeCell ref="A1:D1"/>
+    <mergeCell ref="B1:E2"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -5979,526 +5978,402 @@
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3EB74AA8-D05B-4D47-9D4C-FB004AFB4740}">
-  <dimension ref="A1:U52"/>
+  <dimension ref="B1:H68"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A15" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="N22" sqref="N22"/>
+    <sheetView showGridLines="0" zoomScale="86" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="B1" sqref="B1:E2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="22.26953125" bestFit="1" customWidth="1"/>
-    <col min="2" max="3" width="9.7265625" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="21.81640625" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="14.90625" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="2.54296875" customWidth="1"/>
+    <col min="2" max="2" width="22.26953125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="10.26953125" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="15.08984375" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="21.81640625" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="14.90625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:21" x14ac:dyDescent="0.35">
-      <c r="A1" s="27" t="s">
+    <row r="1" spans="2:8" x14ac:dyDescent="0.35">
+      <c r="B1" s="36" t="s">
         <v>5</v>
       </c>
-      <c r="B1" s="27"/>
-      <c r="C1" s="27"/>
-      <c r="D1" s="27"/>
-    </row>
-    <row r="3" spans="1:21" ht="14.5" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A3" s="29" t="s">
-        <v>98</v>
-      </c>
-      <c r="B3" s="29"/>
-      <c r="C3" s="29"/>
-      <c r="D3" s="29"/>
-      <c r="E3" s="29"/>
-      <c r="F3" s="29"/>
-      <c r="G3" s="29"/>
-      <c r="H3" s="29"/>
-      <c r="I3" s="29"/>
-      <c r="J3" s="29"/>
-      <c r="K3" s="29"/>
-      <c r="L3" s="29"/>
-      <c r="M3" s="29"/>
-      <c r="N3" s="29"/>
-      <c r="O3" s="29"/>
-    </row>
-    <row r="4" spans="1:21" x14ac:dyDescent="0.35">
-      <c r="A4" s="30"/>
-      <c r="B4" s="30"/>
-      <c r="C4" s="30"/>
-      <c r="D4" s="30"/>
-      <c r="E4" s="30"/>
-      <c r="F4" s="30"/>
-      <c r="G4" s="30"/>
-      <c r="H4" s="30"/>
-      <c r="I4" s="30"/>
-      <c r="J4" s="30"/>
-      <c r="K4" s="30"/>
-      <c r="L4" s="30"/>
-      <c r="M4" s="30"/>
-      <c r="N4" s="30"/>
-      <c r="O4" s="30"/>
-    </row>
-    <row r="5" spans="1:21" x14ac:dyDescent="0.35">
-      <c r="A5" s="30"/>
-      <c r="B5" s="30"/>
-      <c r="C5" s="30"/>
-      <c r="D5" s="30"/>
-      <c r="E5" s="30"/>
-      <c r="F5" s="30"/>
-      <c r="G5" s="30"/>
-      <c r="H5" s="30"/>
-      <c r="I5" s="30"/>
-      <c r="J5" s="30"/>
-      <c r="K5" s="30"/>
-      <c r="L5" s="30"/>
-      <c r="M5" s="30"/>
-      <c r="N5" s="30"/>
-      <c r="O5" s="30"/>
-    </row>
-    <row r="8" spans="1:21" x14ac:dyDescent="0.35">
-      <c r="A8" s="31" t="s">
-        <v>90</v>
-      </c>
-      <c r="B8" s="31"/>
-      <c r="C8" s="31"/>
-      <c r="D8" s="31"/>
-      <c r="E8" s="31"/>
-      <c r="F8" s="31"/>
-      <c r="G8" s="31"/>
-      <c r="H8" s="31"/>
-      <c r="I8" s="31"/>
-      <c r="J8" s="31"/>
-      <c r="K8" s="31"/>
-      <c r="L8" s="31"/>
-      <c r="M8" s="31"/>
-      <c r="N8" s="31"/>
-      <c r="O8" s="31"/>
-      <c r="P8" s="31"/>
-    </row>
-    <row r="9" spans="1:21" x14ac:dyDescent="0.35">
-      <c r="A9" s="32"/>
-      <c r="B9" s="32"/>
-      <c r="C9" s="32"/>
-      <c r="D9" s="32"/>
-      <c r="E9" s="32"/>
-      <c r="F9" s="32"/>
-      <c r="G9" s="32"/>
-      <c r="H9" s="32"/>
-      <c r="I9" s="32"/>
-      <c r="J9" s="32"/>
-      <c r="K9" s="32"/>
-      <c r="L9" s="32"/>
-      <c r="M9" s="32"/>
-      <c r="N9" s="32"/>
-      <c r="O9" s="32"/>
-      <c r="P9" s="32"/>
-    </row>
-    <row r="10" spans="1:21" x14ac:dyDescent="0.35">
-      <c r="A10" s="20"/>
-      <c r="B10" s="20"/>
-      <c r="C10" s="20"/>
-      <c r="D10" s="20"/>
-      <c r="E10" s="20"/>
-      <c r="F10" s="20"/>
-      <c r="G10" s="20"/>
-      <c r="H10" s="20"/>
-      <c r="I10" s="20"/>
-      <c r="J10" s="20"/>
-      <c r="K10" s="20"/>
-      <c r="L10" s="20"/>
-      <c r="M10" s="20"/>
-      <c r="N10" s="20"/>
-      <c r="O10" s="20"/>
-      <c r="P10" s="20"/>
-      <c r="Q10" s="20"/>
-      <c r="R10" s="20"/>
-      <c r="S10" s="20"/>
-      <c r="T10" s="20"/>
-      <c r="U10" s="20"/>
-    </row>
-    <row r="11" spans="1:21" x14ac:dyDescent="0.35">
-      <c r="A11" s="5" t="s">
+      <c r="C1" s="36"/>
+      <c r="D1" s="36"/>
+      <c r="E1" s="36"/>
+    </row>
+    <row r="2" spans="2:8" x14ac:dyDescent="0.35">
+      <c r="B2" s="36"/>
+      <c r="C2" s="36"/>
+      <c r="D2" s="36"/>
+      <c r="E2" s="36"/>
+    </row>
+    <row r="5" spans="2:8" x14ac:dyDescent="0.35">
+      <c r="B5" s="37" t="s">
+        <v>111</v>
+      </c>
+      <c r="C5" s="37"/>
+      <c r="D5" s="37"/>
+      <c r="E5" s="37"/>
+      <c r="F5" s="37"/>
+      <c r="G5" s="37"/>
+      <c r="H5" s="37"/>
+    </row>
+    <row r="7" spans="2:8" ht="14.5" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="B7" t="s">
+        <v>112</v>
+      </c>
+    </row>
+    <row r="8" spans="2:8" ht="14.5" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="9" spans="2:8" x14ac:dyDescent="0.35">
+      <c r="B9" s="38" t="s">
+        <v>115</v>
+      </c>
+    </row>
+    <row r="10" spans="2:8" x14ac:dyDescent="0.35">
+      <c r="B10" t="s">
+        <v>113</v>
+      </c>
+    </row>
+    <row r="11" spans="2:8" x14ac:dyDescent="0.35">
+      <c r="B11" t="s">
+        <v>114</v>
+      </c>
+    </row>
+    <row r="12" spans="2:8" x14ac:dyDescent="0.35">
+      <c r="B12" t="s">
+        <v>116</v>
+      </c>
+    </row>
+    <row r="14" spans="2:8" x14ac:dyDescent="0.35">
+      <c r="B14" s="10" t="s">
+        <v>84</v>
+      </c>
+      <c r="C14" s="15">
+        <f>('Income Statement'!H15/'Income Statement'!H13)</f>
+        <v>1.5183106496422059</v>
+      </c>
+      <c r="D14" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="15" spans="2:8" x14ac:dyDescent="0.35">
+      <c r="C15" s="15">
+        <f>'Income Statement'!G15/'Income Statement'!G13</f>
+        <v>1.2057119257099234</v>
+      </c>
+      <c r="D15" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="16" spans="2:8" x14ac:dyDescent="0.35">
+      <c r="C16" s="15">
+        <f>'Income Statement'!F15/'Income Statement'!F13</f>
+        <v>1.4791926339913959</v>
+      </c>
+      <c r="D16" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="17" spans="2:8" x14ac:dyDescent="0.35">
+      <c r="C17" s="15">
+        <f>'Income Statement'!E15/'Income Statement'!E13</f>
+        <v>1.6562310355906187</v>
+      </c>
+      <c r="D17" t="s">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="19" spans="2:8" x14ac:dyDescent="0.35">
+      <c r="B19" t="s">
+        <v>117</v>
+      </c>
+    </row>
+    <row r="23" spans="2:8" x14ac:dyDescent="0.35">
+      <c r="B23" s="5" t="s">
         <v>83</v>
       </c>
-      <c r="B11" s="5">
+      <c r="C23" s="5">
         <v>45352</v>
       </c>
-      <c r="C11" s="5">
+      <c r="D23" s="5">
         <v>45717</v>
       </c>
-      <c r="D11" s="5">
+      <c r="E23" s="5">
         <v>46082</v>
       </c>
-      <c r="E11" s="5">
+      <c r="F23" s="5">
         <v>46447</v>
       </c>
-      <c r="F11" s="5">
+      <c r="G23" s="5">
         <v>46813</v>
       </c>
-      <c r="G11" s="5">
+      <c r="H23" s="5">
         <v>47178</v>
       </c>
     </row>
-    <row r="12" spans="1:21" x14ac:dyDescent="0.35">
-      <c r="A12" s="10" t="s">
+    <row r="24" spans="2:8" ht="14.5" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="B24" s="10" t="s">
         <v>8</v>
       </c>
-      <c r="B12" s="11">
-        <f>'Income Statement'!G5</f>
+      <c r="C24" s="11">
+        <f>'Income Statement'!H13</f>
         <v>9977.7999999999993</v>
       </c>
-      <c r="C12">
-        <f>B12+C13*B12</f>
+      <c r="D24">
+        <f>C24+D25*C24</f>
         <v>11973.359999999999</v>
       </c>
-      <c r="D12">
-        <f t="shared" ref="D12:G12" si="0">C12+D13*C12</f>
+      <c r="E24">
+        <f t="shared" ref="E24:H24" si="0">D24+E25*D24</f>
         <v>14368.031999999999</v>
       </c>
-      <c r="E12">
+      <c r="F24">
         <f t="shared" si="0"/>
         <v>17241.6384</v>
       </c>
-      <c r="F12">
+      <c r="G24">
         <f t="shared" si="0"/>
         <v>20689.966079999998</v>
       </c>
-      <c r="G12">
+      <c r="H24">
         <f t="shared" si="0"/>
         <v>24827.959295999997</v>
       </c>
     </row>
-    <row r="13" spans="1:21" x14ac:dyDescent="0.35">
-      <c r="A13" t="s">
+    <row r="25" spans="2:8" x14ac:dyDescent="0.35">
+      <c r="B25" t="s">
+        <v>89</v>
+      </c>
+      <c r="D25" s="15">
+        <v>0.2</v>
+      </c>
+      <c r="E25" s="15">
+        <v>0.2</v>
+      </c>
+      <c r="F25" s="15">
+        <v>0.2</v>
+      </c>
+      <c r="G25" s="15">
+        <v>0.2</v>
+      </c>
+      <c r="H25" s="15">
+        <v>0.2</v>
+      </c>
+    </row>
+    <row r="28" spans="2:8" x14ac:dyDescent="0.35">
+      <c r="B28" s="5" t="s">
+        <v>83</v>
+      </c>
+      <c r="C28" s="5">
+        <v>45352</v>
+      </c>
+      <c r="D28" s="5">
+        <v>45717</v>
+      </c>
+      <c r="E28" s="5">
+        <v>46082</v>
+      </c>
+      <c r="F28" s="5">
+        <v>46447</v>
+      </c>
+      <c r="G28" s="5">
+        <v>46813</v>
+      </c>
+      <c r="H28" s="5">
+        <v>47178</v>
+      </c>
+    </row>
+    <row r="29" spans="2:8" x14ac:dyDescent="0.35">
+      <c r="B29" s="10" t="s">
+        <v>24</v>
+      </c>
+      <c r="C29" s="12">
+        <f>'Income Statement'!H15</f>
+        <v>15149.400000000001</v>
+      </c>
+      <c r="D29" s="12">
+        <f>AVERAGE(C29,E29)</f>
+        <v>14758.716</v>
+      </c>
+      <c r="E29">
+        <f>E24</f>
+        <v>14368.031999999999</v>
+      </c>
+      <c r="F29">
+        <f>F24-(F24*4%)</f>
+        <v>16551.972863999999</v>
+      </c>
+      <c r="G29">
+        <f>G24-(G24*4%)</f>
+        <v>19862.367436799999</v>
+      </c>
+      <c r="H29">
+        <f>H24-(H24*4%)</f>
+        <v>23834.840924159998</v>
+      </c>
+    </row>
+    <row r="31" spans="2:8" x14ac:dyDescent="0.35">
+      <c r="B31" s="10" t="s">
+        <v>90</v>
+      </c>
+      <c r="D31" s="12">
+        <f>D24-D29</f>
+        <v>-2785.3560000000016</v>
+      </c>
+      <c r="E31" s="12">
+        <f>E24-E29</f>
+        <v>0</v>
+      </c>
+      <c r="F31" s="12">
+        <f>F24-F29</f>
+        <v>689.66553600000043</v>
+      </c>
+      <c r="G31" s="12">
+        <f>G24-G29</f>
+        <v>827.59864319999906</v>
+      </c>
+      <c r="H31" s="12">
+        <f>H24-H29</f>
+        <v>993.11837183999887</v>
+      </c>
+    </row>
+    <row r="33" spans="2:8" x14ac:dyDescent="0.35">
+      <c r="B33" s="10" t="s">
         <v>91</v>
       </c>
-      <c r="C13" s="15">
-        <v>0.2</v>
-      </c>
-      <c r="D13" s="15">
-        <v>0.2</v>
-      </c>
-      <c r="E13" s="15">
-        <v>0.2</v>
-      </c>
-      <c r="F13" s="15">
-        <v>0.2</v>
-      </c>
-      <c r="G13" s="15">
-        <v>0.2</v>
-      </c>
-    </row>
-    <row r="16" spans="1:21" x14ac:dyDescent="0.35">
-      <c r="A16" s="40" t="s">
-        <v>89</v>
-      </c>
-      <c r="B16" s="40"/>
-      <c r="C16" s="40"/>
-      <c r="D16" s="40"/>
-      <c r="E16" s="40"/>
-      <c r="F16" s="40"/>
-      <c r="G16" s="40"/>
-      <c r="H16" s="40"/>
-      <c r="I16" s="40"/>
-      <c r="J16" s="40"/>
-      <c r="K16" s="40"/>
-      <c r="L16" s="40"/>
-      <c r="N16" s="10" t="s">
-        <v>84</v>
-      </c>
-      <c r="O16" s="15">
-        <f>('Income Statement'!G7/'Income Statement'!G5)</f>
-        <v>1.5183106496422059</v>
-      </c>
-      <c r="P16" t="s">
-        <v>85</v>
-      </c>
-    </row>
-    <row r="17" spans="1:16" x14ac:dyDescent="0.35">
-      <c r="A17" s="40"/>
-      <c r="B17" s="40"/>
-      <c r="C17" s="40"/>
-      <c r="D17" s="40"/>
-      <c r="E17" s="40"/>
-      <c r="F17" s="40"/>
-      <c r="G17" s="40"/>
-      <c r="H17" s="40"/>
-      <c r="I17" s="40"/>
-      <c r="J17" s="40"/>
-      <c r="K17" s="40"/>
-      <c r="L17" s="40"/>
-      <c r="O17" s="15">
-        <f>'Income Statement'!F7/'Income Statement'!F5</f>
-        <v>1.2057119257099234</v>
-      </c>
-      <c r="P17" t="s">
-        <v>86</v>
-      </c>
-    </row>
-    <row r="18" spans="1:16" x14ac:dyDescent="0.35">
-      <c r="O18" s="15">
-        <f>'Income Statement'!E7/'Income Statement'!E5</f>
-        <v>1.4791926339913959</v>
-      </c>
-      <c r="P18" t="s">
-        <v>87</v>
-      </c>
-    </row>
-    <row r="19" spans="1:16" x14ac:dyDescent="0.35">
-      <c r="O19" s="15">
-        <f>'Income Statement'!D7/'Income Statement'!D5</f>
-        <v>1.6562310355906187</v>
-      </c>
-      <c r="P19" t="s">
-        <v>88</v>
-      </c>
-    </row>
-    <row r="20" spans="1:16" x14ac:dyDescent="0.35">
-      <c r="A20" s="5" t="s">
-        <v>83</v>
-      </c>
-      <c r="B20" s="5">
-        <v>45352</v>
-      </c>
-      <c r="C20" s="5">
-        <v>45717</v>
-      </c>
-      <c r="D20" s="5">
-        <v>46082</v>
-      </c>
-      <c r="E20" s="5">
-        <v>46447</v>
-      </c>
-      <c r="F20" s="5">
-        <v>46813</v>
-      </c>
-      <c r="G20" s="5">
-        <v>47178</v>
-      </c>
-    </row>
-    <row r="21" spans="1:16" x14ac:dyDescent="0.35">
-      <c r="A21" s="10" t="s">
-        <v>24</v>
-      </c>
-      <c r="B21" s="12">
-        <f>'Income Statement'!G7</f>
-        <v>15149.400000000001</v>
-      </c>
-      <c r="C21" s="12">
-        <f>AVERAGE(B21,D21)</f>
-        <v>14758.716</v>
-      </c>
-      <c r="D21">
-        <f>D12</f>
-        <v>14368.031999999999</v>
-      </c>
-      <c r="E21">
-        <f>E12-(E12*4%)</f>
-        <v>16551.972863999999</v>
-      </c>
-      <c r="F21">
-        <f t="shared" ref="F21:G21" si="1">F12-(F12*4%)</f>
-        <v>19862.367436799999</v>
-      </c>
-      <c r="G21">
-        <f t="shared" si="1"/>
-        <v>23834.840924159998</v>
-      </c>
-    </row>
-    <row r="23" spans="1:16" x14ac:dyDescent="0.35">
-      <c r="A23" s="10" t="s">
-        <v>92</v>
-      </c>
-      <c r="C23" s="12">
-        <f>C12-C21</f>
-        <v>-2785.3560000000016</v>
-      </c>
-      <c r="D23" s="12">
-        <f t="shared" ref="D23:G23" si="2">D12-D21</f>
-        <v>0</v>
-      </c>
-      <c r="E23" s="12">
-        <f t="shared" si="2"/>
-        <v>689.66553600000043</v>
-      </c>
-      <c r="F23" s="12">
-        <f t="shared" si="2"/>
-        <v>827.59864319999906</v>
-      </c>
-      <c r="G23" s="12">
-        <f t="shared" si="2"/>
-        <v>993.11837183999887</v>
-      </c>
-    </row>
-    <row r="25" spans="1:16" x14ac:dyDescent="0.35">
-      <c r="A25" s="10" t="s">
-        <v>93</v>
-      </c>
-      <c r="B25" s="24">
+      <c r="C33" s="23">
         <f>'Data Sheet'!K73</f>
         <v>650.79999999999995</v>
       </c>
-      <c r="C25" s="24">
-        <f>B25+B25*C26</f>
+      <c r="D33" s="23">
+        <f>C33+C33*D34</f>
         <v>767.94399999999996</v>
       </c>
-      <c r="D25" s="24">
-        <f t="shared" ref="D25:G25" si="3">C25+C25*D26</f>
+      <c r="E33" s="23">
+        <f t="shared" ref="E33:H33" si="1">D33+D33*E34</f>
         <v>906.17391999999995</v>
       </c>
-      <c r="E25" s="24">
+      <c r="F33" s="23">
+        <f t="shared" si="1"/>
+        <v>1069.2852255999999</v>
+      </c>
+      <c r="G33" s="23">
+        <f t="shared" si="1"/>
+        <v>1261.7565662079999</v>
+      </c>
+      <c r="H33" s="23">
+        <f t="shared" si="1"/>
+        <v>1488.8727481254398</v>
+      </c>
+    </row>
+    <row r="34" spans="2:8" x14ac:dyDescent="0.35">
+      <c r="B34" t="s">
+        <v>89</v>
+      </c>
+      <c r="D34" s="15">
+        <v>0.18</v>
+      </c>
+      <c r="E34" s="15">
+        <v>0.18</v>
+      </c>
+      <c r="F34" s="15">
+        <v>0.18</v>
+      </c>
+      <c r="G34" s="15">
+        <v>0.18</v>
+      </c>
+      <c r="H34" s="15">
+        <v>0.18</v>
+      </c>
+    </row>
+    <row r="36" spans="2:8" x14ac:dyDescent="0.35">
+      <c r="B36" s="10" t="s">
+        <v>92</v>
+      </c>
+      <c r="C36">
+        <v>561</v>
+      </c>
+      <c r="D36">
+        <f>C36+C36*D37</f>
+        <v>628.31999999999994</v>
+      </c>
+      <c r="E36">
+        <f t="shared" ref="E36:H36" si="2">D36+D36*E37</f>
+        <v>703.71839999999997</v>
+      </c>
+      <c r="F36">
+        <f t="shared" si="2"/>
+        <v>788.16460799999993</v>
+      </c>
+      <c r="G36">
+        <f t="shared" si="2"/>
+        <v>882.74436095999988</v>
+      </c>
+      <c r="H36">
+        <f t="shared" si="2"/>
+        <v>988.67368427519989</v>
+      </c>
+    </row>
+    <row r="37" spans="2:8" x14ac:dyDescent="0.35">
+      <c r="D37" s="15">
+        <v>0.12</v>
+      </c>
+      <c r="E37" s="15">
+        <v>0.12</v>
+      </c>
+      <c r="F37" s="15">
+        <v>0.12</v>
+      </c>
+      <c r="G37" s="15">
+        <v>0.12</v>
+      </c>
+      <c r="H37" s="15">
+        <v>0.12</v>
+      </c>
+    </row>
+    <row r="38" spans="2:8" ht="14.5" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="39" spans="2:8" x14ac:dyDescent="0.35">
+      <c r="B39" s="10" t="s">
+        <v>93</v>
+      </c>
+      <c r="D39" s="11">
+        <f>D33-D36</f>
+        <v>139.62400000000002</v>
+      </c>
+      <c r="E39" s="11">
+        <f t="shared" ref="E39:H39" si="3">E33-E36</f>
+        <v>202.45551999999998</v>
+      </c>
+      <c r="F39" s="11">
         <f t="shared" si="3"/>
-        <v>1069.2852255999999</v>
-      </c>
-      <c r="F25" s="24">
+        <v>281.12061759999995</v>
+      </c>
+      <c r="G39" s="11">
         <f t="shared" si="3"/>
-        <v>1261.7565662079999</v>
-      </c>
-      <c r="G25" s="24">
+        <v>379.01220524799999</v>
+      </c>
+      <c r="H39" s="11">
         <f t="shared" si="3"/>
-        <v>1488.8727481254398</v>
-      </c>
-      <c r="I25" s="41" t="s">
-        <v>94</v>
-      </c>
-      <c r="J25" s="41"/>
-      <c r="K25" s="41"/>
-      <c r="L25" s="41"/>
-      <c r="M25" s="41"/>
-      <c r="N25" s="41"/>
-      <c r="O25" s="41"/>
-    </row>
-    <row r="26" spans="1:16" x14ac:dyDescent="0.35">
-      <c r="A26" t="s">
-        <v>91</v>
-      </c>
-      <c r="C26" s="15">
-        <v>0.18</v>
-      </c>
-      <c r="D26" s="15">
-        <v>0.18</v>
-      </c>
-      <c r="E26" s="15">
-        <v>0.18</v>
-      </c>
-      <c r="F26" s="15">
-        <v>0.18</v>
-      </c>
-      <c r="G26" s="15">
-        <v>0.18</v>
-      </c>
-      <c r="I26" s="41"/>
-      <c r="J26" s="41"/>
-      <c r="K26" s="41"/>
-      <c r="L26" s="41"/>
-      <c r="M26" s="41"/>
-      <c r="N26" s="41"/>
-      <c r="O26" s="41"/>
-    </row>
-    <row r="28" spans="1:16" ht="14.5" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A28" s="10" t="s">
-        <v>95</v>
-      </c>
-      <c r="B28">
-        <v>561</v>
-      </c>
-      <c r="C28">
-        <f>B28+B28*C29</f>
-        <v>628.31999999999994</v>
-      </c>
-      <c r="D28">
-        <f t="shared" ref="D28:G28" si="4">C28+C28*D29</f>
-        <v>703.71839999999997</v>
-      </c>
-      <c r="E28">
-        <f t="shared" si="4"/>
-        <v>788.16460799999993</v>
-      </c>
-      <c r="F28">
-        <f t="shared" si="4"/>
-        <v>882.74436095999988</v>
-      </c>
-      <c r="G28">
-        <f t="shared" si="4"/>
-        <v>988.67368427519989</v>
-      </c>
-      <c r="I28" s="41" t="s">
-        <v>97</v>
-      </c>
-      <c r="J28" s="41"/>
-      <c r="K28" s="41"/>
-      <c r="L28" s="41"/>
-      <c r="M28" s="41"/>
-      <c r="N28" s="41"/>
-      <c r="O28" s="41"/>
-    </row>
-    <row r="29" spans="1:16" x14ac:dyDescent="0.35">
-      <c r="C29" s="15">
-        <v>0.12</v>
-      </c>
-      <c r="D29" s="15">
-        <v>0.12</v>
-      </c>
-      <c r="E29" s="15">
-        <v>0.12</v>
-      </c>
-      <c r="F29" s="15">
-        <v>0.12</v>
-      </c>
-      <c r="G29" s="15">
-        <v>0.12</v>
-      </c>
-      <c r="I29" s="41"/>
-      <c r="J29" s="41"/>
-      <c r="K29" s="41"/>
-      <c r="L29" s="41"/>
-      <c r="M29" s="41"/>
-      <c r="N29" s="41"/>
-      <c r="O29" s="41"/>
-    </row>
-    <row r="31" spans="1:16" x14ac:dyDescent="0.35">
-      <c r="A31" s="10" t="s">
-        <v>96</v>
-      </c>
-      <c r="C31" s="11">
-        <f>C25-C28</f>
-        <v>139.62400000000002</v>
-      </c>
-      <c r="D31" s="11">
-        <f t="shared" ref="D31:G31" si="5">D25-D28</f>
-        <v>202.45551999999998</v>
-      </c>
-      <c r="E31" s="11">
-        <f t="shared" si="5"/>
-        <v>281.12061759999995</v>
-      </c>
-      <c r="F31" s="11">
-        <f t="shared" si="5"/>
-        <v>379.01220524799999</v>
-      </c>
-      <c r="G31" s="11">
-        <f t="shared" si="5"/>
         <v>500.1990638502399</v>
       </c>
     </row>
-    <row r="43" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A43" s="10"/>
-    </row>
-    <row r="49" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A49" s="10"/>
-    </row>
-    <row r="52" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A52" s="10"/>
+    <row r="41" spans="2:8" ht="14.5" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="44" spans="2:8" ht="14.5" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="59" spans="2:2" x14ac:dyDescent="0.35">
+      <c r="B59" s="10"/>
+    </row>
+    <row r="65" spans="2:2" x14ac:dyDescent="0.35">
+      <c r="B65" s="10"/>
+    </row>
+    <row r="68" spans="2:2" x14ac:dyDescent="0.35">
+      <c r="B68" s="10"/>
     </row>
   </sheetData>
-  <mergeCells count="6">
-    <mergeCell ref="I25:O26"/>
-    <mergeCell ref="I28:O29"/>
-    <mergeCell ref="A3:O5"/>
-    <mergeCell ref="A1:D1"/>
-    <mergeCell ref="A16:L17"/>
-    <mergeCell ref="A8:P9"/>
+  <mergeCells count="1">
+    <mergeCell ref="B1:E2"/>
   </mergeCells>
-  <phoneticPr fontId="5" type="noConversion"/>
+  <phoneticPr fontId="4" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <drawing r:id="rId1"/>
 </worksheet>
@@ -6506,383 +6381,390 @@
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{82BA7741-34D0-41E4-9CED-5F08344F972E}">
-  <dimension ref="A1:L42"/>
+  <dimension ref="B1:M42"/>
   <sheetViews>
-    <sheetView showGridLines="0" workbookViewId="0">
-      <selection activeCell="B45" sqref="B45"/>
+    <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
+      <selection activeCell="C36" sqref="C36"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="17.6328125" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="15.81640625" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="14.08984375" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="14.81640625" customWidth="1"/>
-    <col min="5" max="5" width="13.453125" customWidth="1"/>
-    <col min="6" max="6" width="13.36328125" customWidth="1"/>
+    <col min="1" max="1" width="2.1796875" customWidth="1"/>
+    <col min="2" max="2" width="17.6328125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="15.81640625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="14.08984375" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="14.81640625" customWidth="1"/>
+    <col min="6" max="6" width="13.453125" customWidth="1"/>
+    <col min="7" max="7" width="13.36328125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A1" s="27" t="s">
+    <row r="1" spans="2:7" x14ac:dyDescent="0.35">
+      <c r="B1" s="36" t="s">
         <v>5</v>
       </c>
-      <c r="B1" s="27"/>
-      <c r="C1" s="27"/>
-      <c r="D1" s="27"/>
-    </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A4" s="5" t="s">
+      <c r="C1" s="36"/>
+      <c r="D1" s="36"/>
+      <c r="E1" s="36"/>
+    </row>
+    <row r="2" spans="2:7" x14ac:dyDescent="0.35">
+      <c r="B2" s="36"/>
+      <c r="C2" s="36"/>
+      <c r="D2" s="36"/>
+      <c r="E2" s="36"/>
+    </row>
+    <row r="4" spans="2:7" x14ac:dyDescent="0.35">
+      <c r="B4" s="5" t="s">
         <v>83</v>
       </c>
-      <c r="B4" s="5">
+      <c r="C4" s="5">
         <v>45717</v>
       </c>
-      <c r="C4" s="5">
+      <c r="D4" s="5">
         <v>46082</v>
       </c>
-      <c r="D4" s="5">
+      <c r="E4" s="5">
         <v>46447</v>
       </c>
-      <c r="E4" s="5">
+      <c r="F4" s="5">
         <v>46813</v>
       </c>
-      <c r="F4" s="5">
+      <c r="G4" s="5">
         <v>47178</v>
       </c>
     </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A5" s="10" t="s">
+    <row r="5" spans="2:7" x14ac:dyDescent="0.35">
+      <c r="B5" s="10" t="s">
+        <v>93</v>
+      </c>
+      <c r="C5" s="11">
+        <f>Projections!D39</f>
+        <v>139.62400000000002</v>
+      </c>
+      <c r="D5" s="11">
+        <f>Projections!E39</f>
+        <v>202.45551999999998</v>
+      </c>
+      <c r="E5" s="11">
+        <f>Projections!F39</f>
+        <v>281.12061759999995</v>
+      </c>
+      <c r="F5" s="11">
+        <f>Projections!G39</f>
+        <v>379.01220524799999</v>
+      </c>
+      <c r="G5" s="11">
+        <f>Projections!H39</f>
+        <v>500.1990638502399</v>
+      </c>
+    </row>
+    <row r="7" spans="2:7" x14ac:dyDescent="0.35">
+      <c r="B7" s="39" t="s">
+        <v>95</v>
+      </c>
+      <c r="C7" s="31"/>
+      <c r="D7" s="31"/>
+      <c r="E7" s="31"/>
+      <c r="F7" s="31"/>
+      <c r="G7" s="31"/>
+    </row>
+    <row r="8" spans="2:7" x14ac:dyDescent="0.35">
+      <c r="B8" s="31"/>
+      <c r="C8" s="31"/>
+      <c r="D8" s="31"/>
+      <c r="E8" s="31"/>
+      <c r="F8" s="31"/>
+      <c r="G8" s="31"/>
+    </row>
+    <row r="10" spans="2:7" x14ac:dyDescent="0.35">
+      <c r="B10" s="27" t="s">
+        <v>99</v>
+      </c>
+      <c r="C10" s="27"/>
+      <c r="D10" s="27"/>
+      <c r="E10" s="27"/>
+      <c r="F10" s="27"/>
+      <c r="G10" s="27"/>
+    </row>
+    <row r="13" spans="2:7" x14ac:dyDescent="0.35">
+      <c r="C13" s="10" t="s">
+        <v>97</v>
+      </c>
+      <c r="D13" s="10" t="s">
         <v>96</v>
       </c>
-      <c r="B5" s="11">
-        <f>Projections!C31</f>
+      <c r="E13" s="10" t="s">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="14" spans="2:7" x14ac:dyDescent="0.35">
+      <c r="B14" s="10" t="s">
+        <v>94</v>
+      </c>
+      <c r="C14" s="22">
+        <f>($G$5*(1+3%))/(11.5%-3%)</f>
+        <v>6061.2357148911415</v>
+      </c>
+      <c r="D14" s="21">
+        <f>($G$5*(1+4%))/(11.5%-4%)</f>
+        <v>6936.093685389993</v>
+      </c>
+      <c r="E14" s="20">
+        <f>($G$5*(1+6%))/(11.5%-6%)</f>
+        <v>9640.2001396591677</v>
+      </c>
+    </row>
+    <row r="16" spans="2:7" x14ac:dyDescent="0.35">
+      <c r="B16" s="27" t="s">
+        <v>100</v>
+      </c>
+      <c r="C16" s="27"/>
+      <c r="D16" s="27"/>
+      <c r="E16" s="27"/>
+    </row>
+    <row r="18" spans="2:7" x14ac:dyDescent="0.35">
+      <c r="B18" s="5" t="s">
+        <v>101</v>
+      </c>
+      <c r="C18" s="5">
+        <v>45717</v>
+      </c>
+      <c r="D18" s="5">
+        <v>46082</v>
+      </c>
+      <c r="E18" s="5">
+        <v>46447</v>
+      </c>
+      <c r="F18" s="5">
+        <v>46813</v>
+      </c>
+      <c r="G18" s="5">
+        <v>47178</v>
+      </c>
+    </row>
+    <row r="19" spans="2:7" x14ac:dyDescent="0.35">
+      <c r="B19" s="10" t="s">
+        <v>93</v>
+      </c>
+      <c r="C19" s="11">
+        <f>C5</f>
         <v>139.62400000000002</v>
       </c>
-      <c r="C5" s="11">
-        <f>Projections!D31</f>
+      <c r="D19" s="11">
+        <f t="shared" ref="D19:G19" si="0">D5</f>
         <v>202.45551999999998</v>
       </c>
-      <c r="D5" s="11">
-        <f>Projections!E31</f>
-        <v>281.12061759999995</v>
-      </c>
-      <c r="E5" s="11">
-        <f>Projections!F31</f>
-        <v>379.01220524799999</v>
-      </c>
-      <c r="F5" s="11">
-        <f>Projections!G31</f>
-        <v>500.1990638502399</v>
-      </c>
-    </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A7" s="36" t="s">
-        <v>100</v>
-      </c>
-      <c r="B7" s="36"/>
-      <c r="C7" s="36"/>
-      <c r="D7" s="36"/>
-      <c r="E7" s="36"/>
-      <c r="F7" s="36"/>
-    </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A8" s="36"/>
-      <c r="B8" s="36"/>
-      <c r="C8" s="36"/>
-      <c r="D8" s="36"/>
-      <c r="E8" s="36"/>
-      <c r="F8" s="36"/>
-    </row>
-    <row r="10" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A10" s="28" t="s">
-        <v>104</v>
-      </c>
-      <c r="B10" s="28"/>
-      <c r="C10" s="28"/>
-      <c r="D10" s="28"/>
-      <c r="E10" s="28"/>
-      <c r="F10" s="28"/>
-    </row>
-    <row r="13" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="B13" s="10" t="s">
-        <v>102</v>
-      </c>
-      <c r="C13" s="10" t="s">
-        <v>101</v>
-      </c>
-      <c r="D13" s="10" t="s">
-        <v>103</v>
-      </c>
-    </row>
-    <row r="14" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A14" s="10" t="s">
-        <v>99</v>
-      </c>
-      <c r="B14" s="23">
-        <f>($F$5*(1+3%))/(11.5%-3%)</f>
-        <v>6061.2357148911415</v>
-      </c>
-      <c r="C14" s="22">
-        <f>($F$5*(1+4%))/(11.5%-4%)</f>
-        <v>6936.093685389993</v>
-      </c>
-      <c r="D14" s="21">
-        <f>($F$5*(1+6%))/(11.5%-6%)</f>
-        <v>9640.2001396591677</v>
-      </c>
-    </row>
-    <row r="16" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A16" s="28" t="s">
-        <v>105</v>
-      </c>
-      <c r="B16" s="28"/>
-      <c r="C16" s="28"/>
-      <c r="D16" s="28"/>
-    </row>
-    <row r="18" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A18" s="5" t="s">
-        <v>106</v>
-      </c>
-      <c r="B18" s="5">
-        <v>45717</v>
-      </c>
-      <c r="C18" s="5">
-        <v>46082</v>
-      </c>
-      <c r="D18" s="5">
-        <v>46447</v>
-      </c>
-      <c r="E18" s="5">
-        <v>46813</v>
-      </c>
-      <c r="F18" s="5">
-        <v>47178</v>
-      </c>
-    </row>
-    <row r="19" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A19" s="10" t="s">
-        <v>96</v>
-      </c>
-      <c r="B19" s="11">
-        <f>B5</f>
-        <v>139.62400000000002</v>
-      </c>
-      <c r="C19" s="11">
-        <f t="shared" ref="C19:F19" si="0">C5</f>
-        <v>202.45551999999998</v>
-      </c>
-      <c r="D19" s="11">
+      <c r="E19" s="11">
         <f t="shared" si="0"/>
         <v>281.12061759999995</v>
       </c>
-      <c r="E19" s="11">
+      <c r="F19" s="11">
         <f t="shared" si="0"/>
         <v>379.01220524799999</v>
       </c>
-      <c r="F19" s="11">
+      <c r="G19" s="11">
         <f t="shared" si="0"/>
         <v>500.1990638502399</v>
       </c>
     </row>
-    <row r="21" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A21" s="10" t="s">
+    <row r="21" spans="2:7" x14ac:dyDescent="0.35">
+      <c r="B21" s="10" t="s">
+        <v>102</v>
+      </c>
+      <c r="C21" s="11">
+        <f>C19/(1+11.5%)^1</f>
+        <v>125.22331838565024</v>
+      </c>
+      <c r="D21" s="11">
+        <f>D19/(1+11.5%)^2</f>
+        <v>162.84704699471132</v>
+      </c>
+      <c r="E21" s="11">
+        <f>E19/(1+11.5%)^3</f>
+        <v>202.80006791969419</v>
+      </c>
+      <c r="F21" s="11">
+        <f>F19/(1+11.5%)^4</f>
+        <v>245.21877928118028</v>
+      </c>
+      <c r="G21" s="11">
+        <f>G19/(1+11.5%)^5</f>
+        <v>290.24753339413132</v>
+      </c>
+    </row>
+    <row r="22" spans="2:7" x14ac:dyDescent="0.35">
+      <c r="B22" s="10"/>
+    </row>
+    <row r="23" spans="2:7" x14ac:dyDescent="0.35">
+      <c r="B23" s="10" t="s">
+        <v>103</v>
+      </c>
+      <c r="C23" s="11">
+        <f>D14/(1+11.5%)^5</f>
+        <v>4024.7657963986208</v>
+      </c>
+    </row>
+    <row r="24" spans="2:7" x14ac:dyDescent="0.35">
+      <c r="B24" s="10"/>
+    </row>
+    <row r="25" spans="2:7" x14ac:dyDescent="0.35">
+      <c r="B25" s="10" t="s">
+        <v>104</v>
+      </c>
+      <c r="C25" s="11">
+        <f>C23+C21+D21+E21+F21+G21</f>
+        <v>5051.1025423739875</v>
+      </c>
+    </row>
+    <row r="27" spans="2:7" x14ac:dyDescent="0.35">
+      <c r="B27" t="s">
+        <v>105</v>
+      </c>
+      <c r="C27">
+        <v>170</v>
+      </c>
+    </row>
+    <row r="28" spans="2:7" x14ac:dyDescent="0.35">
+      <c r="B28" s="10" t="s">
+        <v>106</v>
+      </c>
+      <c r="C28" s="11">
+        <f>C25-C27</f>
+        <v>4881.1025423739875</v>
+      </c>
+    </row>
+    <row r="31" spans="2:7" x14ac:dyDescent="0.35">
+      <c r="B31" s="24" t="s">
         <v>107</v>
       </c>
-      <c r="B21" s="11">
-        <f>B19/(1+11.5%)^1</f>
-        <v>125.22331838565024</v>
-      </c>
-      <c r="C21" s="11">
-        <f>C19/(1+11.5%)^2</f>
-        <v>162.84704699471132</v>
-      </c>
-      <c r="D21" s="11">
-        <f>D19/(1+11.5%)^3</f>
-        <v>202.80006791969419</v>
-      </c>
-      <c r="E21" s="11">
-        <f>E19/(1+11.5%)^4</f>
-        <v>245.21877928118028</v>
-      </c>
-      <c r="F21" s="11">
-        <f>F19/(1+11.5%)^5</f>
-        <v>290.24753339413132</v>
-      </c>
-    </row>
-    <row r="22" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A22" s="10"/>
-    </row>
-    <row r="23" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A23" s="10" t="s">
+      <c r="C31" s="25">
+        <f>C28/'Data Sheet'!K84</f>
+        <v>76.819366420742639</v>
+      </c>
+    </row>
+    <row r="33" spans="2:13" x14ac:dyDescent="0.35">
+      <c r="C33" s="32" t="s">
         <v>108</v>
       </c>
-      <c r="B23" s="11">
-        <f>C14/(1+11.5%)^5</f>
-        <v>4024.7657963986208</v>
-      </c>
-    </row>
-    <row r="24" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A24" s="10"/>
-    </row>
-    <row r="25" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A25" s="10" t="s">
+      <c r="D33" s="32"/>
+      <c r="E33" s="32"/>
+      <c r="F33" s="32"/>
+      <c r="G33" s="32"/>
+      <c r="H33" s="32"/>
+      <c r="I33" s="32"/>
+    </row>
+    <row r="34" spans="2:13" x14ac:dyDescent="0.35">
+      <c r="C34" s="33"/>
+      <c r="D34" s="33"/>
+      <c r="E34" s="33"/>
+      <c r="F34" s="33"/>
+      <c r="G34" s="33"/>
+      <c r="H34" s="33"/>
+      <c r="I34" s="33"/>
+    </row>
+    <row r="35" spans="2:13" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="C35" s="34"/>
+      <c r="D35" s="34"/>
+      <c r="E35" s="34"/>
+      <c r="F35" s="34"/>
+      <c r="G35" s="34"/>
+      <c r="H35" s="34"/>
+      <c r="I35" s="34"/>
+    </row>
+    <row r="36" spans="2:13" ht="15" thickTop="1" x14ac:dyDescent="0.35"/>
+    <row r="37" spans="2:13" x14ac:dyDescent="0.35">
+      <c r="B37" s="28" t="s">
         <v>109</v>
       </c>
-      <c r="B25" s="11">
-        <f>B23+B21+C21+D21+E21+F21</f>
-        <v>5051.1025423739875</v>
-      </c>
-    </row>
-    <row r="27" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A27" t="s">
-        <v>110</v>
-      </c>
-      <c r="B27">
-        <v>170</v>
-      </c>
-    </row>
-    <row r="28" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A28" s="10" t="s">
-        <v>111</v>
-      </c>
-      <c r="B28" s="11">
-        <f>B25-B27</f>
-        <v>4881.1025423739875</v>
-      </c>
-    </row>
-    <row r="31" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A31" s="25" t="s">
-        <v>112</v>
-      </c>
-      <c r="B31" s="26">
-        <f>B28/'Data Sheet'!K84</f>
-        <v>76.819366420742639</v>
-      </c>
-    </row>
-    <row r="33" spans="1:12" x14ac:dyDescent="0.35">
-      <c r="B33" s="37" t="s">
-        <v>113</v>
-      </c>
-      <c r="C33" s="37"/>
-      <c r="D33" s="37"/>
-      <c r="E33" s="37"/>
-      <c r="F33" s="37"/>
-      <c r="G33" s="37"/>
-      <c r="H33" s="37"/>
-    </row>
-    <row r="34" spans="1:12" x14ac:dyDescent="0.35">
-      <c r="B34" s="38"/>
-      <c r="C34" s="38"/>
-      <c r="D34" s="38"/>
-      <c r="E34" s="38"/>
-      <c r="F34" s="38"/>
-      <c r="G34" s="38"/>
-      <c r="H34" s="38"/>
-    </row>
-    <row r="35" spans="1:12" ht="15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="B35" s="39"/>
-      <c r="C35" s="39"/>
-      <c r="D35" s="39"/>
-      <c r="E35" s="39"/>
-      <c r="F35" s="39"/>
-      <c r="G35" s="39"/>
-      <c r="H35" s="39"/>
-    </row>
-    <row r="36" spans="1:12" ht="15" thickTop="1" x14ac:dyDescent="0.35"/>
-    <row r="37" spans="1:12" x14ac:dyDescent="0.35">
-      <c r="A37" s="33" t="s">
-        <v>114</v>
-      </c>
-      <c r="B37" s="33"/>
-      <c r="C37" s="33"/>
-      <c r="D37" s="33"/>
-      <c r="E37" s="33"/>
-      <c r="F37" s="33"/>
-      <c r="G37" s="33"/>
-      <c r="H37" s="33"/>
-      <c r="I37" s="33"/>
-      <c r="J37" s="33"/>
-      <c r="K37" s="33"/>
-      <c r="L37" s="33"/>
-    </row>
-    <row r="38" spans="1:12" x14ac:dyDescent="0.35">
-      <c r="A38" s="34"/>
-      <c r="B38" s="34"/>
-      <c r="C38" s="34"/>
-      <c r="D38" s="34"/>
-      <c r="E38" s="34"/>
-      <c r="F38" s="34"/>
-      <c r="G38" s="34"/>
-      <c r="H38" s="34"/>
-      <c r="I38" s="34"/>
-      <c r="J38" s="34"/>
-      <c r="K38" s="34"/>
-      <c r="L38" s="34"/>
-    </row>
-    <row r="39" spans="1:12" x14ac:dyDescent="0.35">
-      <c r="A39" s="34"/>
-      <c r="B39" s="34"/>
-      <c r="C39" s="34"/>
-      <c r="D39" s="34"/>
-      <c r="E39" s="34"/>
-      <c r="F39" s="34"/>
-      <c r="G39" s="34"/>
-      <c r="H39" s="34"/>
-      <c r="I39" s="34"/>
-      <c r="J39" s="34"/>
-      <c r="K39" s="34"/>
-      <c r="L39" s="34"/>
-    </row>
-    <row r="40" spans="1:12" x14ac:dyDescent="0.35">
-      <c r="A40" s="34"/>
-      <c r="B40" s="34"/>
-      <c r="C40" s="34"/>
-      <c r="D40" s="34"/>
-      <c r="E40" s="34"/>
-      <c r="F40" s="34"/>
-      <c r="G40" s="34"/>
-      <c r="H40" s="34"/>
-      <c r="I40" s="34"/>
-      <c r="J40" s="34"/>
-      <c r="K40" s="34"/>
-      <c r="L40" s="34"/>
-    </row>
-    <row r="41" spans="1:12" x14ac:dyDescent="0.35">
-      <c r="A41" s="34"/>
-      <c r="B41" s="34"/>
-      <c r="C41" s="34"/>
-      <c r="D41" s="34"/>
-      <c r="E41" s="34"/>
-      <c r="F41" s="34"/>
-      <c r="G41" s="34"/>
-      <c r="H41" s="34"/>
-      <c r="I41" s="34"/>
-      <c r="J41" s="34"/>
-      <c r="K41" s="34"/>
-      <c r="L41" s="34"/>
-    </row>
-    <row r="42" spans="1:12" ht="15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A42" s="35"/>
-      <c r="B42" s="35"/>
-      <c r="C42" s="35"/>
-      <c r="D42" s="35"/>
-      <c r="E42" s="35"/>
-      <c r="F42" s="35"/>
-      <c r="G42" s="35"/>
-      <c r="H42" s="35"/>
-      <c r="I42" s="35"/>
-      <c r="J42" s="35"/>
-      <c r="K42" s="35"/>
-      <c r="L42" s="35"/>
+      <c r="C37" s="28"/>
+      <c r="D37" s="28"/>
+      <c r="E37" s="28"/>
+      <c r="F37" s="28"/>
+      <c r="G37" s="28"/>
+      <c r="H37" s="28"/>
+      <c r="I37" s="28"/>
+      <c r="J37" s="28"/>
+      <c r="K37" s="28"/>
+      <c r="L37" s="28"/>
+      <c r="M37" s="28"/>
+    </row>
+    <row r="38" spans="2:13" x14ac:dyDescent="0.35">
+      <c r="B38" s="29"/>
+      <c r="C38" s="29"/>
+      <c r="D38" s="29"/>
+      <c r="E38" s="29"/>
+      <c r="F38" s="29"/>
+      <c r="G38" s="29"/>
+      <c r="H38" s="29"/>
+      <c r="I38" s="29"/>
+      <c r="J38" s="29"/>
+      <c r="K38" s="29"/>
+      <c r="L38" s="29"/>
+      <c r="M38" s="29"/>
+    </row>
+    <row r="39" spans="2:13" x14ac:dyDescent="0.35">
+      <c r="B39" s="29"/>
+      <c r="C39" s="29"/>
+      <c r="D39" s="29"/>
+      <c r="E39" s="29"/>
+      <c r="F39" s="29"/>
+      <c r="G39" s="29"/>
+      <c r="H39" s="29"/>
+      <c r="I39" s="29"/>
+      <c r="J39" s="29"/>
+      <c r="K39" s="29"/>
+      <c r="L39" s="29"/>
+      <c r="M39" s="29"/>
+    </row>
+    <row r="40" spans="2:13" x14ac:dyDescent="0.35">
+      <c r="B40" s="29"/>
+      <c r="C40" s="29"/>
+      <c r="D40" s="29"/>
+      <c r="E40" s="29"/>
+      <c r="F40" s="29"/>
+      <c r="G40" s="29"/>
+      <c r="H40" s="29"/>
+      <c r="I40" s="29"/>
+      <c r="J40" s="29"/>
+      <c r="K40" s="29"/>
+      <c r="L40" s="29"/>
+      <c r="M40" s="29"/>
+    </row>
+    <row r="41" spans="2:13" x14ac:dyDescent="0.35">
+      <c r="B41" s="29"/>
+      <c r="C41" s="29"/>
+      <c r="D41" s="29"/>
+      <c r="E41" s="29"/>
+      <c r="F41" s="29"/>
+      <c r="G41" s="29"/>
+      <c r="H41" s="29"/>
+      <c r="I41" s="29"/>
+      <c r="J41" s="29"/>
+      <c r="K41" s="29"/>
+      <c r="L41" s="29"/>
+      <c r="M41" s="29"/>
+    </row>
+    <row r="42" spans="2:13" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="B42" s="30"/>
+      <c r="C42" s="30"/>
+      <c r="D42" s="30"/>
+      <c r="E42" s="30"/>
+      <c r="F42" s="30"/>
+      <c r="G42" s="30"/>
+      <c r="H42" s="30"/>
+      <c r="I42" s="30"/>
+      <c r="J42" s="30"/>
+      <c r="K42" s="30"/>
+      <c r="L42" s="30"/>
+      <c r="M42" s="30"/>
     </row>
   </sheetData>
   <mergeCells count="6">
-    <mergeCell ref="A37:L42"/>
-    <mergeCell ref="A1:D1"/>
-    <mergeCell ref="A7:F8"/>
-    <mergeCell ref="A10:F10"/>
-    <mergeCell ref="A16:D16"/>
-    <mergeCell ref="B33:H35"/>
+    <mergeCell ref="B37:M42"/>
+    <mergeCell ref="B7:G8"/>
+    <mergeCell ref="B10:G10"/>
+    <mergeCell ref="B16:E16"/>
+    <mergeCell ref="C33:I35"/>
+    <mergeCell ref="B1:E2"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -6906,12 +6788,12 @@
       <c r="A1" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="B1" s="27" t="s">
+      <c r="B1" s="26" t="s">
         <v>5</v>
       </c>
-      <c r="C1" s="27"/>
-      <c r="D1" s="27"/>
-      <c r="E1" s="27"/>
+      <c r="C1" s="26"/>
+      <c r="D1" s="26"/>
+      <c r="E1" s="26"/>
     </row>
     <row r="4" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A4" s="1" t="s">
